--- a/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
+++ b/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/sea084_csiro_au/Documents/RossRCode/Git/Shiny/Apps/NationalSoilMonitoring/NSMData/www/Configs/NSMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea084\OneDrive - CSIRO\RossRCode\Git\Shiny\Apps\SoilDataEntry\www\Configs\NSMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1219" documentId="13_ncr:1_{806FB16B-895D-4BC9-A51C-3E69EFC0CC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CF15A1-2A9F-4270-B82D-84B83644B6C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD645398-F41B-445B-9197-3D7D188121DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="-20910" windowWidth="25605" windowHeight="15495" firstSheet="1" activeTab="1" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
+    <workbookView xWindow="4425" yWindow="-16860" windowWidth="27855" windowHeight="17295" firstSheet="4" activeTab="4" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateOriginal" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="DBInfo" sheetId="8" r:id="rId2"/>
+    <sheet name="DBInfo" sheetId="8" state="hidden" r:id="rId2"/>
     <sheet name="DBTableLevels" sheetId="9" state="hidden" r:id="rId3"/>
-    <sheet name="Codes" sheetId="2" r:id="rId4"/>
+    <sheet name="Codes" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="About" sheetId="13" r:id="rId5"/>
     <sheet name="Template" sheetId="4" r:id="rId6"/>
     <sheet name="Filled Example" sheetId="20" r:id="rId7"/>
@@ -9572,7 +9572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47E6B88-97CE-436E-8F7D-17E89501757A}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="E4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
@@ -18951,7 +18951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B206F-F17C-4025-942F-53FBF697F5D0}">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -18982,6 +18982,16 @@
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
@@ -19010,6 +19020,16 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
     </row>
     <row r="3" spans="1:36" ht="47.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A3" s="12"/>
@@ -19040,6 +19060,16 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
@@ -19068,6 +19098,16 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
@@ -19096,6 +19136,16 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
@@ -19124,6 +19174,16 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
@@ -19152,6 +19212,16 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
     </row>
     <row r="8" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
@@ -19182,6 +19252,16 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
@@ -19210,6 +19290,16 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
@@ -19240,6 +19330,16 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
@@ -19268,6 +19368,16 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
     </row>
     <row r="12" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
@@ -19298,6 +19408,16 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
     </row>
     <row r="13" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
@@ -19328,6 +19448,16 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
     </row>
     <row r="14" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
@@ -19358,6 +19488,16 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
     </row>
     <row r="15" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
@@ -20968,6 +21108,7 @@
       <c r="AJ56" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="yaq1X1OJqmdndO2v4B8tw9nPdbjHIx6UEYA+5RsEbCadPYKiPpi5NACsSM4HTvfIPuNTJqV1+SgEI0WtHfTixw==" saltValue="yl79cb33tVA6dZ4HUzdyQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
+++ b/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea084\OneDrive - CSIRO\RossRCode\Git\Shiny\Apps\SoilDataEntry\www\Configs\NSMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD645398-F41B-445B-9197-3D7D188121DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB1B30-9AB1-4C64-BF2C-F6282794E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="-16860" windowWidth="27855" windowHeight="17295" firstSheet="4" activeTab="4" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
+    <workbookView xWindow="4400" yWindow="1680" windowWidth="18570" windowHeight="11530" firstSheet="4" activeTab="5" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateOriginal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1954">
   <si>
     <t>Site ID</t>
   </si>
@@ -18951,7 +18951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B206F-F17C-4025-942F-53FBF697F5D0}">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -21118,8 +21118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A645384-9AAE-42FD-AF2D-5042FBACFF4E}">
   <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21980,9 +21980,7 @@
       <c r="A14" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="B14" s="266" t="s">
-        <v>733</v>
-      </c>
+      <c r="B14" s="266"/>
       <c r="C14" s="112"/>
       <c r="D14" s="2" t="s">
         <v>1578</v>

--- a/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
+++ b/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/sea084_csiro_au/Documents/RossRCode/Git/Shiny/Apps/SoilDataEntry/www/Configs/NSMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{85FB1B30-9AB1-4C64-BF2C-F6282794E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97AF8024-5DB0-4270-A56F-06404906B6EE}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{85FB1B30-9AB1-4C64-BF2C-F6282794E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5A6C5E-3C6D-4D5E-936E-7B91841B0E05}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="-18120" windowWidth="29040" windowHeight="18240" firstSheet="4" activeTab="4" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="24290" windowHeight="14340" firstSheet="4" activeTab="4" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateOriginal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -7936,6 +7936,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7948,13 +7955,6 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18968,2156 +18968,2156 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A1" s="282"/>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="282"/>
-      <c r="S1" s="282"/>
-      <c r="T1" s="282"/>
-      <c r="U1" s="282"/>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="282"/>
-      <c r="AB1" s="282"/>
-      <c r="AC1" s="282"/>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="282"/>
-      <c r="AG1" s="282"/>
-      <c r="AH1" s="282"/>
-      <c r="AI1" s="282"/>
-      <c r="AJ1" s="282"/>
+      <c r="A1" s="278"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="278"/>
+      <c r="T1" s="278"/>
+      <c r="U1" s="278"/>
+      <c r="V1" s="278"/>
+      <c r="W1" s="278"/>
+      <c r="X1" s="278"/>
+      <c r="Y1" s="278"/>
+      <c r="Z1" s="278"/>
+      <c r="AA1" s="278"/>
+      <c r="AB1" s="278"/>
+      <c r="AC1" s="278"/>
+      <c r="AD1" s="278"/>
+      <c r="AE1" s="278"/>
+      <c r="AF1" s="278"/>
+      <c r="AG1" s="278"/>
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="278"/>
+      <c r="AJ1" s="278"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A2" s="282"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="282"/>
-      <c r="V2" s="282"/>
-      <c r="W2" s="282"/>
-      <c r="X2" s="282"/>
-      <c r="Y2" s="282"/>
-      <c r="Z2" s="282"/>
-      <c r="AA2" s="282"/>
-      <c r="AB2" s="282"/>
-      <c r="AC2" s="282"/>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="282"/>
-      <c r="AG2" s="282"/>
-      <c r="AH2" s="282"/>
-      <c r="AI2" s="282"/>
-      <c r="AJ2" s="282"/>
+      <c r="A2" s="278"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="278"/>
+      <c r="AB2" s="278"/>
+      <c r="AC2" s="278"/>
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="278"/>
+      <c r="AG2" s="278"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="278"/>
+      <c r="AJ2" s="278"/>
     </row>
     <row r="3" spans="1:36" ht="47.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A3" s="282"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="283" t="s">
+      <c r="A3" s="278"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="279" t="s">
         <v>1950</v>
       </c>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="282"/>
-      <c r="N3" s="282"/>
-      <c r="O3" s="282"/>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="282"/>
-      <c r="R3" s="282"/>
-      <c r="S3" s="282"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="282"/>
-      <c r="AJ3" s="282"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="278"/>
+      <c r="AE3" s="278"/>
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="278"/>
+      <c r="AJ3" s="278"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="282"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="282"/>
-      <c r="AA4" s="282"/>
-      <c r="AB4" s="282"/>
-      <c r="AC4" s="282"/>
-      <c r="AD4" s="282"/>
-      <c r="AE4" s="282"/>
-      <c r="AF4" s="282"/>
-      <c r="AG4" s="282"/>
-      <c r="AH4" s="282"/>
-      <c r="AI4" s="282"/>
-      <c r="AJ4" s="282"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="278"/>
+      <c r="O4" s="278"/>
+      <c r="P4" s="278"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="278"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="278"/>
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="278"/>
+      <c r="X4" s="278"/>
+      <c r="Y4" s="278"/>
+      <c r="Z4" s="278"/>
+      <c r="AA4" s="278"/>
+      <c r="AB4" s="278"/>
+      <c r="AC4" s="278"/>
+      <c r="AD4" s="278"/>
+      <c r="AE4" s="278"/>
+      <c r="AF4" s="278"/>
+      <c r="AG4" s="278"/>
+      <c r="AH4" s="278"/>
+      <c r="AI4" s="278"/>
+      <c r="AJ4" s="278"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="282"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="282"/>
-      <c r="J5" s="282"/>
-      <c r="K5" s="282"/>
-      <c r="L5" s="282"/>
-      <c r="M5" s="282"/>
-      <c r="N5" s="282"/>
-      <c r="O5" s="282"/>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="282"/>
-      <c r="R5" s="282"/>
-      <c r="S5" s="282"/>
-      <c r="T5" s="282"/>
-      <c r="U5" s="282"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="282"/>
-      <c r="X5" s="282"/>
-      <c r="Y5" s="282"/>
-      <c r="Z5" s="282"/>
-      <c r="AA5" s="282"/>
-      <c r="AB5" s="282"/>
-      <c r="AC5" s="282"/>
-      <c r="AD5" s="282"/>
-      <c r="AE5" s="282"/>
-      <c r="AF5" s="282"/>
-      <c r="AG5" s="282"/>
-      <c r="AH5" s="282"/>
-      <c r="AI5" s="282"/>
-      <c r="AJ5" s="282"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="278"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="278"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="278"/>
+      <c r="N5" s="278"/>
+      <c r="O5" s="278"/>
+      <c r="P5" s="278"/>
+      <c r="Q5" s="278"/>
+      <c r="R5" s="278"/>
+      <c r="S5" s="278"/>
+      <c r="T5" s="278"/>
+      <c r="U5" s="278"/>
+      <c r="V5" s="278"/>
+      <c r="W5" s="278"/>
+      <c r="X5" s="278"/>
+      <c r="Y5" s="278"/>
+      <c r="Z5" s="278"/>
+      <c r="AA5" s="278"/>
+      <c r="AB5" s="278"/>
+      <c r="AC5" s="278"/>
+      <c r="AD5" s="278"/>
+      <c r="AE5" s="278"/>
+      <c r="AF5" s="278"/>
+      <c r="AG5" s="278"/>
+      <c r="AH5" s="278"/>
+      <c r="AI5" s="278"/>
+      <c r="AJ5" s="278"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="282"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="282"/>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="282"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="282"/>
-      <c r="X6" s="282"/>
-      <c r="Y6" s="282"/>
-      <c r="Z6" s="282"/>
-      <c r="AA6" s="282"/>
-      <c r="AB6" s="282"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="282"/>
-      <c r="AE6" s="282"/>
-      <c r="AF6" s="282"/>
-      <c r="AG6" s="282"/>
-      <c r="AH6" s="282"/>
-      <c r="AI6" s="282"/>
-      <c r="AJ6" s="282"/>
+      <c r="A6" s="278"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278"/>
+      <c r="P6" s="278"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="278"/>
+      <c r="T6" s="278"/>
+      <c r="U6" s="278"/>
+      <c r="V6" s="278"/>
+      <c r="W6" s="278"/>
+      <c r="X6" s="278"/>
+      <c r="Y6" s="278"/>
+      <c r="Z6" s="278"/>
+      <c r="AA6" s="278"/>
+      <c r="AB6" s="278"/>
+      <c r="AC6" s="278"/>
+      <c r="AD6" s="278"/>
+      <c r="AE6" s="278"/>
+      <c r="AF6" s="278"/>
+      <c r="AG6" s="278"/>
+      <c r="AH6" s="278"/>
+      <c r="AI6" s="278"/>
+      <c r="AJ6" s="278"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="282"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="282"/>
-      <c r="J7" s="282"/>
-      <c r="K7" s="282"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="282"/>
-      <c r="N7" s="282"/>
-      <c r="O7" s="282"/>
-      <c r="P7" s="282"/>
-      <c r="Q7" s="282"/>
-      <c r="R7" s="282"/>
-      <c r="S7" s="282"/>
-      <c r="T7" s="282"/>
-      <c r="U7" s="282"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="282"/>
-      <c r="X7" s="282"/>
-      <c r="Y7" s="282"/>
-      <c r="Z7" s="282"/>
-      <c r="AA7" s="282"/>
-      <c r="AB7" s="282"/>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="282"/>
-      <c r="AE7" s="282"/>
-      <c r="AF7" s="282"/>
-      <c r="AG7" s="282"/>
-      <c r="AH7" s="282"/>
-      <c r="AI7" s="282"/>
-      <c r="AJ7" s="282"/>
+      <c r="A7" s="278"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="278"/>
+      <c r="N7" s="278"/>
+      <c r="O7" s="278"/>
+      <c r="P7" s="278"/>
+      <c r="Q7" s="278"/>
+      <c r="R7" s="278"/>
+      <c r="S7" s="278"/>
+      <c r="T7" s="278"/>
+      <c r="U7" s="278"/>
+      <c r="V7" s="278"/>
+      <c r="W7" s="278"/>
+      <c r="X7" s="278"/>
+      <c r="Y7" s="278"/>
+      <c r="Z7" s="278"/>
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="278"/>
+      <c r="AC7" s="278"/>
+      <c r="AD7" s="278"/>
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="278"/>
+      <c r="AG7" s="278"/>
+      <c r="AH7" s="278"/>
+      <c r="AI7" s="278"/>
+      <c r="AJ7" s="278"/>
     </row>
     <row r="8" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="282"/>
-      <c r="B8" s="282"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="284" t="s">
+      <c r="A8" s="278"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="280" t="s">
         <v>1951</v>
       </c>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282"/>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
-      <c r="T8" s="282"/>
-      <c r="U8" s="282"/>
-      <c r="V8" s="282"/>
-      <c r="W8" s="282"/>
-      <c r="X8" s="282"/>
-      <c r="Y8" s="282"/>
-      <c r="Z8" s="282"/>
-      <c r="AA8" s="282"/>
-      <c r="AB8" s="282"/>
-      <c r="AC8" s="282"/>
-      <c r="AD8" s="282"/>
-      <c r="AE8" s="282"/>
-      <c r="AF8" s="282"/>
-      <c r="AG8" s="282"/>
-      <c r="AH8" s="282"/>
-      <c r="AI8" s="282"/>
-      <c r="AJ8" s="282"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="278"/>
+      <c r="O8" s="278"/>
+      <c r="P8" s="278"/>
+      <c r="Q8" s="278"/>
+      <c r="R8" s="278"/>
+      <c r="S8" s="278"/>
+      <c r="T8" s="278"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="278"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="278"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="278"/>
+      <c r="AA8" s="278"/>
+      <c r="AB8" s="278"/>
+      <c r="AC8" s="278"/>
+      <c r="AD8" s="278"/>
+      <c r="AE8" s="278"/>
+      <c r="AF8" s="278"/>
+      <c r="AG8" s="278"/>
+      <c r="AH8" s="278"/>
+      <c r="AI8" s="278"/>
+      <c r="AJ8" s="278"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="282"/>
-      <c r="B9" s="282"/>
-      <c r="C9" s="282"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="282"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="282"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="282"/>
-      <c r="R9" s="282"/>
-      <c r="S9" s="282"/>
-      <c r="T9" s="282"/>
-      <c r="U9" s="282"/>
-      <c r="V9" s="282"/>
-      <c r="W9" s="282"/>
-      <c r="X9" s="282"/>
-      <c r="Y9" s="282"/>
-      <c r="Z9" s="282"/>
-      <c r="AA9" s="282"/>
-      <c r="AB9" s="282"/>
-      <c r="AC9" s="282"/>
-      <c r="AD9" s="282"/>
-      <c r="AE9" s="282"/>
-      <c r="AF9" s="282"/>
-      <c r="AG9" s="282"/>
-      <c r="AH9" s="282"/>
-      <c r="AI9" s="282"/>
-      <c r="AJ9" s="282"/>
+      <c r="A9" s="278"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="278"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="278"/>
+      <c r="K9" s="278"/>
+      <c r="L9" s="278"/>
+      <c r="M9" s="278"/>
+      <c r="N9" s="278"/>
+      <c r="O9" s="278"/>
+      <c r="P9" s="278"/>
+      <c r="Q9" s="278"/>
+      <c r="R9" s="278"/>
+      <c r="S9" s="278"/>
+      <c r="T9" s="278"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="278"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="278"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="278"/>
+      <c r="AA9" s="278"/>
+      <c r="AB9" s="278"/>
+      <c r="AC9" s="278"/>
+      <c r="AD9" s="278"/>
+      <c r="AE9" s="278"/>
+      <c r="AF9" s="278"/>
+      <c r="AG9" s="278"/>
+      <c r="AH9" s="278"/>
+      <c r="AI9" s="278"/>
+      <c r="AJ9" s="278"/>
     </row>
     <row r="10" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="282"/>
-      <c r="B10" s="282"/>
-      <c r="C10" s="282"/>
-      <c r="D10" s="284" t="s">
+      <c r="A10" s="278"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="280" t="s">
         <v>1423</v>
       </c>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="282"/>
-      <c r="J10" s="282"/>
-      <c r="K10" s="282"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="282"/>
-      <c r="N10" s="282"/>
-      <c r="O10" s="282"/>
-      <c r="P10" s="282"/>
-      <c r="Q10" s="282"/>
-      <c r="R10" s="282"/>
-      <c r="S10" s="282"/>
-      <c r="T10" s="282"/>
-      <c r="U10" s="282"/>
-      <c r="V10" s="282"/>
-      <c r="W10" s="282"/>
-      <c r="X10" s="282"/>
-      <c r="Y10" s="282"/>
-      <c r="Z10" s="282"/>
-      <c r="AA10" s="282"/>
-      <c r="AB10" s="282"/>
-      <c r="AC10" s="282"/>
-      <c r="AD10" s="282"/>
-      <c r="AE10" s="282"/>
-      <c r="AF10" s="282"/>
-      <c r="AG10" s="282"/>
-      <c r="AH10" s="282"/>
-      <c r="AI10" s="282"/>
-      <c r="AJ10" s="282"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="278"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="278"/>
+      <c r="Q10" s="278"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="278"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="278"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="278"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="278"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="278"/>
+      <c r="AC10" s="278"/>
+      <c r="AD10" s="278"/>
+      <c r="AE10" s="278"/>
+      <c r="AF10" s="278"/>
+      <c r="AG10" s="278"/>
+      <c r="AH10" s="278"/>
+      <c r="AI10" s="278"/>
+      <c r="AJ10" s="278"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A11" s="282"/>
-      <c r="B11" s="282"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="282"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="282"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="282"/>
-      <c r="L11" s="282"/>
-      <c r="M11" s="282"/>
-      <c r="N11" s="282"/>
-      <c r="O11" s="282"/>
-      <c r="P11" s="282"/>
-      <c r="Q11" s="282"/>
-      <c r="R11" s="282"/>
-      <c r="S11" s="282"/>
-      <c r="T11" s="282"/>
-      <c r="U11" s="282"/>
-      <c r="V11" s="282"/>
-      <c r="W11" s="282"/>
-      <c r="X11" s="282"/>
-      <c r="Y11" s="282"/>
-      <c r="Z11" s="282"/>
-      <c r="AA11" s="282"/>
-      <c r="AB11" s="282"/>
-      <c r="AC11" s="282"/>
-      <c r="AD11" s="282"/>
-      <c r="AE11" s="282"/>
-      <c r="AF11" s="282"/>
-      <c r="AG11" s="282"/>
-      <c r="AH11" s="282"/>
-      <c r="AI11" s="282"/>
-      <c r="AJ11" s="282"/>
+      <c r="A11" s="278"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="278"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="278"/>
+      <c r="I11" s="278"/>
+      <c r="J11" s="278"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="278"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="278"/>
+      <c r="O11" s="278"/>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="278"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="278"/>
+      <c r="U11" s="278"/>
+      <c r="V11" s="278"/>
+      <c r="W11" s="278"/>
+      <c r="X11" s="278"/>
+      <c r="Y11" s="278"/>
+      <c r="Z11" s="278"/>
+      <c r="AA11" s="278"/>
+      <c r="AB11" s="278"/>
+      <c r="AC11" s="278"/>
+      <c r="AD11" s="278"/>
+      <c r="AE11" s="278"/>
+      <c r="AF11" s="278"/>
+      <c r="AG11" s="278"/>
+      <c r="AH11" s="278"/>
+      <c r="AI11" s="278"/>
+      <c r="AJ11" s="278"/>
     </row>
     <row r="12" spans="1:36" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="282"/>
-      <c r="B12" s="282"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="286" t="s">
+      <c r="A12" s="278"/>
+      <c r="B12" s="278"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="282" t="s">
         <v>1424</v>
       </c>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="284"/>
-      <c r="H12" s="284"/>
-      <c r="I12" s="284"/>
-      <c r="J12" s="284"/>
-      <c r="K12" s="284"/>
-      <c r="L12" s="284"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="282"/>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="282"/>
-      <c r="S12" s="282"/>
-      <c r="T12" s="282"/>
-      <c r="U12" s="282"/>
-      <c r="V12" s="282"/>
-      <c r="W12" s="282"/>
-      <c r="X12" s="282"/>
-      <c r="Y12" s="282"/>
-      <c r="Z12" s="282"/>
-      <c r="AA12" s="282"/>
-      <c r="AB12" s="282"/>
-      <c r="AC12" s="282"/>
-      <c r="AD12" s="282"/>
-      <c r="AE12" s="282"/>
-      <c r="AF12" s="282"/>
-      <c r="AG12" s="282"/>
-      <c r="AH12" s="282"/>
-      <c r="AI12" s="282"/>
-      <c r="AJ12" s="282"/>
+      <c r="E12" s="280"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="280"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="280"/>
+      <c r="J12" s="280"/>
+      <c r="K12" s="280"/>
+      <c r="L12" s="280"/>
+      <c r="M12" s="278"/>
+      <c r="N12" s="278"/>
+      <c r="O12" s="278"/>
+      <c r="P12" s="278"/>
+      <c r="Q12" s="278"/>
+      <c r="R12" s="278"/>
+      <c r="S12" s="278"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="278"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="278"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="278"/>
+      <c r="AB12" s="278"/>
+      <c r="AC12" s="278"/>
+      <c r="AD12" s="278"/>
+      <c r="AE12" s="278"/>
+      <c r="AF12" s="278"/>
+      <c r="AG12" s="278"/>
+      <c r="AH12" s="278"/>
+      <c r="AI12" s="278"/>
+      <c r="AJ12" s="278"/>
     </row>
     <row r="13" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="282"/>
-      <c r="B13" s="282"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284" t="s">
+      <c r="A13" s="278"/>
+      <c r="B13" s="278"/>
+      <c r="C13" s="278"/>
+      <c r="D13" s="280"/>
+      <c r="E13" s="280" t="s">
         <v>1426</v>
       </c>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="284"/>
-      <c r="M13" s="282"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="282"/>
-      <c r="P13" s="282"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="282"/>
-      <c r="S13" s="282"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="282"/>
-      <c r="V13" s="282"/>
-      <c r="W13" s="282"/>
-      <c r="X13" s="282"/>
-      <c r="Y13" s="282"/>
-      <c r="Z13" s="282"/>
-      <c r="AA13" s="282"/>
-      <c r="AB13" s="282"/>
-      <c r="AC13" s="282"/>
-      <c r="AD13" s="282"/>
-      <c r="AE13" s="282"/>
-      <c r="AF13" s="282"/>
-      <c r="AG13" s="282"/>
-      <c r="AH13" s="282"/>
-      <c r="AI13" s="282"/>
-      <c r="AJ13" s="282"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="280"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="280"/>
+      <c r="J13" s="280"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="280"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="278"/>
+      <c r="O13" s="278"/>
+      <c r="P13" s="278"/>
+      <c r="Q13" s="278"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="278"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="278"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="278"/>
+      <c r="AA13" s="278"/>
+      <c r="AB13" s="278"/>
+      <c r="AC13" s="278"/>
+      <c r="AD13" s="278"/>
+      <c r="AE13" s="278"/>
+      <c r="AF13" s="278"/>
+      <c r="AG13" s="278"/>
+      <c r="AH13" s="278"/>
+      <c r="AI13" s="278"/>
+      <c r="AJ13" s="278"/>
     </row>
     <row r="14" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="282"/>
-      <c r="B14" s="282"/>
-      <c r="C14" s="282"/>
-      <c r="D14" s="284"/>
-      <c r="E14" s="284" t="s">
+      <c r="A14" s="278"/>
+      <c r="B14" s="278"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="280"/>
+      <c r="E14" s="280" t="s">
         <v>1425</v>
       </c>
-      <c r="F14" s="284"/>
-      <c r="G14" s="284"/>
-      <c r="H14" s="284"/>
-      <c r="I14" s="284"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="284"/>
-      <c r="L14" s="284"/>
-      <c r="M14" s="282"/>
-      <c r="N14" s="282"/>
-      <c r="O14" s="282"/>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="282"/>
-      <c r="R14" s="282"/>
-      <c r="S14" s="282"/>
-      <c r="T14" s="282"/>
-      <c r="U14" s="282"/>
-      <c r="V14" s="282"/>
-      <c r="W14" s="282"/>
-      <c r="X14" s="282"/>
-      <c r="Y14" s="282"/>
-      <c r="Z14" s="282"/>
-      <c r="AA14" s="282"/>
-      <c r="AB14" s="282"/>
-      <c r="AC14" s="282"/>
-      <c r="AD14" s="282"/>
-      <c r="AE14" s="282"/>
-      <c r="AF14" s="282"/>
-      <c r="AG14" s="282"/>
-      <c r="AH14" s="282"/>
-      <c r="AI14" s="282"/>
-      <c r="AJ14" s="282"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="280"/>
+      <c r="H14" s="280"/>
+      <c r="I14" s="280"/>
+      <c r="J14" s="280"/>
+      <c r="K14" s="280"/>
+      <c r="L14" s="280"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="278"/>
+      <c r="O14" s="278"/>
+      <c r="P14" s="278"/>
+      <c r="Q14" s="278"/>
+      <c r="R14" s="278"/>
+      <c r="S14" s="278"/>
+      <c r="T14" s="278"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="278"/>
+      <c r="W14" s="278"/>
+      <c r="X14" s="278"/>
+      <c r="Y14" s="278"/>
+      <c r="Z14" s="278"/>
+      <c r="AA14" s="278"/>
+      <c r="AB14" s="278"/>
+      <c r="AC14" s="278"/>
+      <c r="AD14" s="278"/>
+      <c r="AE14" s="278"/>
+      <c r="AF14" s="278"/>
+      <c r="AG14" s="278"/>
+      <c r="AH14" s="278"/>
+      <c r="AI14" s="278"/>
+      <c r="AJ14" s="278"/>
     </row>
     <row r="15" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="282"/>
-      <c r="B15" s="282"/>
-      <c r="C15" s="282"/>
-      <c r="D15" s="284"/>
-      <c r="E15" s="284" t="s">
+      <c r="A15" s="278"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="280"/>
+      <c r="E15" s="280" t="s">
         <v>1427</v>
       </c>
-      <c r="F15" s="284"/>
-      <c r="G15" s="284"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="284"/>
-      <c r="L15" s="284"/>
-      <c r="M15" s="282"/>
-      <c r="N15" s="282"/>
-      <c r="O15" s="282"/>
-      <c r="P15" s="282"/>
-      <c r="Q15" s="282"/>
-      <c r="R15" s="282"/>
-      <c r="S15" s="282"/>
-      <c r="T15" s="282"/>
-      <c r="U15" s="282"/>
-      <c r="V15" s="282"/>
-      <c r="W15" s="282"/>
-      <c r="X15" s="282"/>
-      <c r="Y15" s="282"/>
-      <c r="Z15" s="282"/>
-      <c r="AA15" s="282"/>
-      <c r="AB15" s="282"/>
-      <c r="AC15" s="282"/>
-      <c r="AD15" s="282"/>
-      <c r="AE15" s="282"/>
-      <c r="AF15" s="282"/>
-      <c r="AG15" s="282"/>
-      <c r="AH15" s="282"/>
-      <c r="AI15" s="282"/>
-      <c r="AJ15" s="282"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="280"/>
+      <c r="I15" s="280"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
+      <c r="M15" s="278"/>
+      <c r="N15" s="278"/>
+      <c r="O15" s="278"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="278"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="278"/>
+      <c r="AA15" s="278"/>
+      <c r="AB15" s="278"/>
+      <c r="AC15" s="278"/>
+      <c r="AD15" s="278"/>
+      <c r="AE15" s="278"/>
+      <c r="AF15" s="278"/>
+      <c r="AG15" s="278"/>
+      <c r="AH15" s="278"/>
+      <c r="AI15" s="278"/>
+      <c r="AJ15" s="278"/>
     </row>
     <row r="16" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="282"/>
-      <c r="B16" s="282"/>
-      <c r="C16" s="282"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="284" t="s">
+      <c r="A16" s="278"/>
+      <c r="B16" s="278"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="280"/>
+      <c r="E16" s="280" t="s">
         <v>1428</v>
       </c>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="284"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="284"/>
-      <c r="M16" s="282"/>
-      <c r="N16" s="282"/>
-      <c r="O16" s="282"/>
-      <c r="P16" s="282"/>
-      <c r="Q16" s="282"/>
-      <c r="R16" s="282"/>
-      <c r="S16" s="282"/>
-      <c r="T16" s="282"/>
-      <c r="U16" s="282"/>
-      <c r="V16" s="282"/>
-      <c r="W16" s="282"/>
-      <c r="X16" s="282"/>
-      <c r="Y16" s="282"/>
-      <c r="Z16" s="282"/>
-      <c r="AA16" s="282"/>
-      <c r="AB16" s="282"/>
-      <c r="AC16" s="282"/>
-      <c r="AD16" s="282"/>
-      <c r="AE16" s="282"/>
-      <c r="AF16" s="282"/>
-      <c r="AG16" s="282"/>
-      <c r="AH16" s="282"/>
-      <c r="AI16" s="282"/>
-      <c r="AJ16" s="282"/>
+      <c r="F16" s="280"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="280"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
+      <c r="M16" s="278"/>
+      <c r="N16" s="278"/>
+      <c r="O16" s="278"/>
+      <c r="P16" s="278"/>
+      <c r="Q16" s="278"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="278"/>
+      <c r="V16" s="278"/>
+      <c r="W16" s="278"/>
+      <c r="X16" s="278"/>
+      <c r="Y16" s="278"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="278"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="278"/>
+      <c r="AD16" s="278"/>
+      <c r="AE16" s="278"/>
+      <c r="AF16" s="278"/>
+      <c r="AG16" s="278"/>
+      <c r="AH16" s="278"/>
+      <c r="AI16" s="278"/>
+      <c r="AJ16" s="278"/>
     </row>
     <row r="17" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="282"/>
-      <c r="B17" s="282"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="284" t="s">
+      <c r="A17" s="278"/>
+      <c r="B17" s="278"/>
+      <c r="C17" s="278"/>
+      <c r="D17" s="280"/>
+      <c r="E17" s="280" t="s">
         <v>1429</v>
       </c>
-      <c r="F17" s="284"/>
-      <c r="G17" s="284"/>
-      <c r="H17" s="284"/>
-      <c r="I17" s="284"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="284"/>
-      <c r="L17" s="284"/>
-      <c r="M17" s="282"/>
-      <c r="N17" s="282"/>
-      <c r="O17" s="282"/>
-      <c r="P17" s="282"/>
-      <c r="Q17" s="282"/>
-      <c r="R17" s="282"/>
-      <c r="S17" s="282"/>
-      <c r="T17" s="282"/>
-      <c r="U17" s="282"/>
-      <c r="V17" s="282"/>
-      <c r="W17" s="282"/>
-      <c r="X17" s="282"/>
-      <c r="Y17" s="282"/>
-      <c r="Z17" s="282"/>
-      <c r="AA17" s="282"/>
-      <c r="AB17" s="282"/>
-      <c r="AC17" s="282"/>
-      <c r="AD17" s="282"/>
-      <c r="AE17" s="282"/>
-      <c r="AF17" s="282"/>
-      <c r="AG17" s="282"/>
-      <c r="AH17" s="282"/>
-      <c r="AI17" s="282"/>
-      <c r="AJ17" s="282"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="280"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="280"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="280"/>
+      <c r="M17" s="278"/>
+      <c r="N17" s="278"/>
+      <c r="O17" s="278"/>
+      <c r="P17" s="278"/>
+      <c r="Q17" s="278"/>
+      <c r="R17" s="278"/>
+      <c r="S17" s="278"/>
+      <c r="T17" s="278"/>
+      <c r="U17" s="278"/>
+      <c r="V17" s="278"/>
+      <c r="W17" s="278"/>
+      <c r="X17" s="278"/>
+      <c r="Y17" s="278"/>
+      <c r="Z17" s="278"/>
+      <c r="AA17" s="278"/>
+      <c r="AB17" s="278"/>
+      <c r="AC17" s="278"/>
+      <c r="AD17" s="278"/>
+      <c r="AE17" s="278"/>
+      <c r="AF17" s="278"/>
+      <c r="AG17" s="278"/>
+      <c r="AH17" s="278"/>
+      <c r="AI17" s="278"/>
+      <c r="AJ17" s="278"/>
     </row>
     <row r="18" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="282"/>
-      <c r="B18" s="282"/>
-      <c r="C18" s="282"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="284" t="s">
+      <c r="A18" s="278"/>
+      <c r="B18" s="278"/>
+      <c r="C18" s="278"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="280" t="s">
         <v>1952</v>
       </c>
-      <c r="F18" s="284"/>
-      <c r="G18" s="284"/>
-      <c r="H18" s="284"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="284"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="282"/>
-      <c r="N18" s="282"/>
-      <c r="O18" s="282"/>
-      <c r="P18" s="282"/>
-      <c r="Q18" s="282"/>
-      <c r="R18" s="282"/>
-      <c r="S18" s="282"/>
-      <c r="T18" s="282"/>
-      <c r="U18" s="282"/>
-      <c r="V18" s="282"/>
-      <c r="W18" s="282"/>
-      <c r="X18" s="282"/>
-      <c r="Y18" s="282"/>
-      <c r="Z18" s="282"/>
-      <c r="AA18" s="282"/>
-      <c r="AB18" s="282"/>
-      <c r="AC18" s="282"/>
-      <c r="AD18" s="282"/>
-      <c r="AE18" s="282"/>
-      <c r="AF18" s="282"/>
-      <c r="AG18" s="282"/>
-      <c r="AH18" s="282"/>
-      <c r="AI18" s="282"/>
-      <c r="AJ18" s="282"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="278"/>
+      <c r="O18" s="278"/>
+      <c r="P18" s="278"/>
+      <c r="Q18" s="278"/>
+      <c r="R18" s="278"/>
+      <c r="S18" s="278"/>
+      <c r="T18" s="278"/>
+      <c r="U18" s="278"/>
+      <c r="V18" s="278"/>
+      <c r="W18" s="278"/>
+      <c r="X18" s="278"/>
+      <c r="Y18" s="278"/>
+      <c r="Z18" s="278"/>
+      <c r="AA18" s="278"/>
+      <c r="AB18" s="278"/>
+      <c r="AC18" s="278"/>
+      <c r="AD18" s="278"/>
+      <c r="AE18" s="278"/>
+      <c r="AF18" s="278"/>
+      <c r="AG18" s="278"/>
+      <c r="AH18" s="278"/>
+      <c r="AI18" s="278"/>
+      <c r="AJ18" s="278"/>
     </row>
     <row r="19" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="282"/>
-      <c r="B19" s="282"/>
-      <c r="C19" s="282"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="284" t="s">
+      <c r="A19" s="278"/>
+      <c r="B19" s="278"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280" t="s">
         <v>1953</v>
       </c>
-      <c r="F19" s="284"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="284"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="282"/>
-      <c r="N19" s="282"/>
-      <c r="O19" s="282"/>
-      <c r="P19" s="282"/>
-      <c r="Q19" s="282"/>
-      <c r="R19" s="282"/>
-      <c r="S19" s="282"/>
-      <c r="T19" s="282"/>
-      <c r="U19" s="282"/>
-      <c r="V19" s="282"/>
-      <c r="W19" s="282"/>
-      <c r="X19" s="282"/>
-      <c r="Y19" s="282"/>
-      <c r="Z19" s="282"/>
-      <c r="AA19" s="282"/>
-      <c r="AB19" s="282"/>
-      <c r="AC19" s="282"/>
-      <c r="AD19" s="282"/>
-      <c r="AE19" s="282"/>
-      <c r="AF19" s="282"/>
-      <c r="AG19" s="282"/>
-      <c r="AH19" s="282"/>
-      <c r="AI19" s="282"/>
-      <c r="AJ19" s="282"/>
+      <c r="F19" s="280"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="280"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="278"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="278"/>
+      <c r="Q19" s="278"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="278"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="278"/>
+      <c r="W19" s="278"/>
+      <c r="X19" s="278"/>
+      <c r="Y19" s="278"/>
+      <c r="Z19" s="278"/>
+      <c r="AA19" s="278"/>
+      <c r="AB19" s="278"/>
+      <c r="AC19" s="278"/>
+      <c r="AD19" s="278"/>
+      <c r="AE19" s="278"/>
+      <c r="AF19" s="278"/>
+      <c r="AG19" s="278"/>
+      <c r="AH19" s="278"/>
+      <c r="AI19" s="278"/>
+      <c r="AJ19" s="278"/>
     </row>
     <row r="20" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="282"/>
-      <c r="B20" s="282"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="284"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="282"/>
-      <c r="N20" s="282"/>
-      <c r="O20" s="282"/>
-      <c r="P20" s="282"/>
-      <c r="Q20" s="282"/>
-      <c r="R20" s="282"/>
-      <c r="S20" s="282"/>
-      <c r="T20" s="282"/>
-      <c r="U20" s="282"/>
-      <c r="V20" s="282"/>
-      <c r="W20" s="282"/>
-      <c r="X20" s="282"/>
-      <c r="Y20" s="282"/>
-      <c r="Z20" s="282"/>
-      <c r="AA20" s="282"/>
-      <c r="AB20" s="282"/>
-      <c r="AC20" s="282"/>
-      <c r="AD20" s="282"/>
-      <c r="AE20" s="282"/>
-      <c r="AF20" s="282"/>
-      <c r="AG20" s="282"/>
-      <c r="AH20" s="282"/>
-      <c r="AI20" s="282"/>
-      <c r="AJ20" s="282"/>
+      <c r="A20" s="278"/>
+      <c r="B20" s="278"/>
+      <c r="C20" s="278"/>
+      <c r="D20" s="280"/>
+      <c r="E20" s="280"/>
+      <c r="F20" s="280"/>
+      <c r="G20" s="280"/>
+      <c r="H20" s="280"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="280"/>
+      <c r="L20" s="280"/>
+      <c r="M20" s="278"/>
+      <c r="N20" s="278"/>
+      <c r="O20" s="278"/>
+      <c r="P20" s="278"/>
+      <c r="Q20" s="278"/>
+      <c r="R20" s="278"/>
+      <c r="S20" s="278"/>
+      <c r="T20" s="278"/>
+      <c r="U20" s="278"/>
+      <c r="V20" s="278"/>
+      <c r="W20" s="278"/>
+      <c r="X20" s="278"/>
+      <c r="Y20" s="278"/>
+      <c r="Z20" s="278"/>
+      <c r="AA20" s="278"/>
+      <c r="AB20" s="278"/>
+      <c r="AC20" s="278"/>
+      <c r="AD20" s="278"/>
+      <c r="AE20" s="278"/>
+      <c r="AF20" s="278"/>
+      <c r="AG20" s="278"/>
+      <c r="AH20" s="278"/>
+      <c r="AI20" s="278"/>
+      <c r="AJ20" s="278"/>
     </row>
     <row r="21" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="282"/>
-      <c r="B21" s="282"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="284" t="s">
+      <c r="A21" s="278"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="280" t="s">
         <v>1430</v>
       </c>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="284"/>
-      <c r="M21" s="282"/>
-      <c r="N21" s="282"/>
-      <c r="O21" s="282"/>
-      <c r="P21" s="282"/>
-      <c r="Q21" s="282"/>
-      <c r="R21" s="282"/>
-      <c r="S21" s="282"/>
-      <c r="T21" s="282"/>
-      <c r="U21" s="282"/>
-      <c r="V21" s="282"/>
-      <c r="W21" s="282"/>
-      <c r="X21" s="282"/>
-      <c r="Y21" s="282"/>
-      <c r="Z21" s="282"/>
-      <c r="AA21" s="282"/>
-      <c r="AB21" s="282"/>
-      <c r="AC21" s="282"/>
-      <c r="AD21" s="282"/>
-      <c r="AE21" s="282"/>
-      <c r="AF21" s="282"/>
-      <c r="AG21" s="282"/>
-      <c r="AH21" s="282"/>
-      <c r="AI21" s="282"/>
-      <c r="AJ21" s="282"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="278"/>
+      <c r="N21" s="278"/>
+      <c r="O21" s="278"/>
+      <c r="P21" s="278"/>
+      <c r="Q21" s="278"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="278"/>
+      <c r="X21" s="278"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="278"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="278"/>
+      <c r="AD21" s="278"/>
+      <c r="AE21" s="278"/>
+      <c r="AF21" s="278"/>
+      <c r="AG21" s="278"/>
+      <c r="AH21" s="278"/>
+      <c r="AI21" s="278"/>
+      <c r="AJ21" s="278"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A22" s="282"/>
-      <c r="B22" s="282"/>
-      <c r="C22" s="282"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="282"/>
-      <c r="F22" s="282"/>
-      <c r="G22" s="282"/>
-      <c r="H22" s="282"/>
-      <c r="I22" s="282"/>
-      <c r="J22" s="282"/>
-      <c r="K22" s="282"/>
-      <c r="L22" s="282"/>
-      <c r="M22" s="282"/>
-      <c r="N22" s="282"/>
-      <c r="O22" s="282"/>
-      <c r="P22" s="282"/>
-      <c r="Q22" s="282"/>
-      <c r="R22" s="282"/>
-      <c r="S22" s="282"/>
-      <c r="T22" s="282"/>
-      <c r="U22" s="282"/>
-      <c r="V22" s="282"/>
-      <c r="W22" s="282"/>
-      <c r="X22" s="282"/>
-      <c r="Y22" s="282"/>
-      <c r="Z22" s="282"/>
-      <c r="AA22" s="282"/>
-      <c r="AB22" s="282"/>
-      <c r="AC22" s="282"/>
-      <c r="AD22" s="282"/>
-      <c r="AE22" s="282"/>
-      <c r="AF22" s="282"/>
-      <c r="AG22" s="282"/>
-      <c r="AH22" s="282"/>
-      <c r="AI22" s="282"/>
-      <c r="AJ22" s="282"/>
+      <c r="A22" s="278"/>
+      <c r="B22" s="278"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="278"/>
+      <c r="E22" s="278"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="278"/>
+      <c r="H22" s="278"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="278"/>
+      <c r="K22" s="278"/>
+      <c r="L22" s="278"/>
+      <c r="M22" s="278"/>
+      <c r="N22" s="278"/>
+      <c r="O22" s="278"/>
+      <c r="P22" s="278"/>
+      <c r="Q22" s="278"/>
+      <c r="R22" s="278"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="278"/>
+      <c r="U22" s="278"/>
+      <c r="V22" s="278"/>
+      <c r="W22" s="278"/>
+      <c r="X22" s="278"/>
+      <c r="Y22" s="278"/>
+      <c r="Z22" s="278"/>
+      <c r="AA22" s="278"/>
+      <c r="AB22" s="278"/>
+      <c r="AC22" s="278"/>
+      <c r="AD22" s="278"/>
+      <c r="AE22" s="278"/>
+      <c r="AF22" s="278"/>
+      <c r="AG22" s="278"/>
+      <c r="AH22" s="278"/>
+      <c r="AI22" s="278"/>
+      <c r="AJ22" s="278"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="282"/>
-      <c r="B23" s="282"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="282"/>
-      <c r="I23" s="282"/>
-      <c r="J23" s="282"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="282"/>
-      <c r="N23" s="282"/>
-      <c r="O23" s="282"/>
-      <c r="P23" s="282"/>
-      <c r="Q23" s="282"/>
-      <c r="R23" s="282"/>
-      <c r="S23" s="282"/>
-      <c r="T23" s="282"/>
-      <c r="U23" s="282"/>
-      <c r="V23" s="282"/>
-      <c r="W23" s="282"/>
-      <c r="X23" s="282"/>
-      <c r="Y23" s="282"/>
-      <c r="Z23" s="282"/>
-      <c r="AA23" s="282"/>
-      <c r="AB23" s="282"/>
-      <c r="AC23" s="282"/>
-      <c r="AD23" s="282"/>
-      <c r="AE23" s="282"/>
-      <c r="AF23" s="282"/>
-      <c r="AG23" s="282"/>
-      <c r="AH23" s="282"/>
-      <c r="AI23" s="282"/>
-      <c r="AJ23" s="282"/>
+      <c r="A23" s="278"/>
+      <c r="B23" s="278"/>
+      <c r="C23" s="278"/>
+      <c r="D23" s="278"/>
+      <c r="E23" s="278"/>
+      <c r="F23" s="278"/>
+      <c r="G23" s="278"/>
+      <c r="H23" s="278"/>
+      <c r="I23" s="278"/>
+      <c r="J23" s="278"/>
+      <c r="K23" s="278"/>
+      <c r="L23" s="278"/>
+      <c r="M23" s="278"/>
+      <c r="N23" s="278"/>
+      <c r="O23" s="278"/>
+      <c r="P23" s="278"/>
+      <c r="Q23" s="278"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="278"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="278"/>
+      <c r="W23" s="278"/>
+      <c r="X23" s="278"/>
+      <c r="Y23" s="278"/>
+      <c r="Z23" s="278"/>
+      <c r="AA23" s="278"/>
+      <c r="AB23" s="278"/>
+      <c r="AC23" s="278"/>
+      <c r="AD23" s="278"/>
+      <c r="AE23" s="278"/>
+      <c r="AF23" s="278"/>
+      <c r="AG23" s="278"/>
+      <c r="AH23" s="278"/>
+      <c r="AI23" s="278"/>
+      <c r="AJ23" s="278"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A24" s="282"/>
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="282"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
-      <c r="N24" s="282"/>
-      <c r="O24" s="282"/>
-      <c r="P24" s="282"/>
-      <c r="Q24" s="282"/>
-      <c r="R24" s="282"/>
-      <c r="S24" s="282"/>
-      <c r="T24" s="282"/>
-      <c r="U24" s="282"/>
-      <c r="V24" s="282"/>
-      <c r="W24" s="282"/>
-      <c r="X24" s="282"/>
-      <c r="Y24" s="282"/>
-      <c r="Z24" s="282"/>
-      <c r="AA24" s="282"/>
-      <c r="AB24" s="282"/>
-      <c r="AC24" s="282"/>
-      <c r="AD24" s="282"/>
-      <c r="AE24" s="282"/>
-      <c r="AF24" s="282"/>
-      <c r="AG24" s="282"/>
-      <c r="AH24" s="282"/>
-      <c r="AI24" s="282"/>
-      <c r="AJ24" s="282"/>
+      <c r="A24" s="278"/>
+      <c r="B24" s="278"/>
+      <c r="C24" s="278"/>
+      <c r="D24" s="278"/>
+      <c r="E24" s="278"/>
+      <c r="F24" s="278"/>
+      <c r="G24" s="278"/>
+      <c r="H24" s="278"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="278"/>
+      <c r="K24" s="278"/>
+      <c r="L24" s="278"/>
+      <c r="M24" s="278"/>
+      <c r="N24" s="278"/>
+      <c r="O24" s="278"/>
+      <c r="P24" s="278"/>
+      <c r="Q24" s="278"/>
+      <c r="R24" s="278"/>
+      <c r="S24" s="278"/>
+      <c r="T24" s="278"/>
+      <c r="U24" s="278"/>
+      <c r="V24" s="278"/>
+      <c r="W24" s="278"/>
+      <c r="X24" s="278"/>
+      <c r="Y24" s="278"/>
+      <c r="Z24" s="278"/>
+      <c r="AA24" s="278"/>
+      <c r="AB24" s="278"/>
+      <c r="AC24" s="278"/>
+      <c r="AD24" s="278"/>
+      <c r="AE24" s="278"/>
+      <c r="AF24" s="278"/>
+      <c r="AG24" s="278"/>
+      <c r="AH24" s="278"/>
+      <c r="AI24" s="278"/>
+      <c r="AJ24" s="278"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A25" s="282"/>
-      <c r="B25" s="282"/>
-      <c r="C25" s="282"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="282"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="282"/>
-      <c r="I25" s="282"/>
-      <c r="J25" s="282"/>
-      <c r="K25" s="282"/>
-      <c r="L25" s="282"/>
-      <c r="M25" s="282"/>
-      <c r="N25" s="282"/>
-      <c r="O25" s="282"/>
-      <c r="P25" s="282"/>
-      <c r="Q25" s="282"/>
-      <c r="R25" s="282"/>
-      <c r="S25" s="282"/>
-      <c r="T25" s="282"/>
-      <c r="U25" s="282"/>
-      <c r="V25" s="282"/>
-      <c r="W25" s="282"/>
-      <c r="X25" s="282"/>
-      <c r="Y25" s="282"/>
-      <c r="Z25" s="282"/>
-      <c r="AA25" s="282"/>
-      <c r="AB25" s="282"/>
-      <c r="AC25" s="282"/>
-      <c r="AD25" s="282"/>
-      <c r="AE25" s="282"/>
-      <c r="AF25" s="282"/>
-      <c r="AG25" s="282"/>
-      <c r="AH25" s="282"/>
-      <c r="AI25" s="282"/>
-      <c r="AJ25" s="282"/>
+      <c r="A25" s="278"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="278"/>
+      <c r="K25" s="278"/>
+      <c r="L25" s="278"/>
+      <c r="M25" s="278"/>
+      <c r="N25" s="278"/>
+      <c r="O25" s="278"/>
+      <c r="P25" s="278"/>
+      <c r="Q25" s="278"/>
+      <c r="R25" s="278"/>
+      <c r="S25" s="278"/>
+      <c r="T25" s="278"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="278"/>
+      <c r="W25" s="278"/>
+      <c r="X25" s="278"/>
+      <c r="Y25" s="278"/>
+      <c r="Z25" s="278"/>
+      <c r="AA25" s="278"/>
+      <c r="AB25" s="278"/>
+      <c r="AC25" s="278"/>
+      <c r="AD25" s="278"/>
+      <c r="AE25" s="278"/>
+      <c r="AF25" s="278"/>
+      <c r="AG25" s="278"/>
+      <c r="AH25" s="278"/>
+      <c r="AI25" s="278"/>
+      <c r="AJ25" s="278"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A26" s="282"/>
-      <c r="B26" s="282"/>
-      <c r="C26" s="282"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="282"/>
-      <c r="F26" s="282"/>
-      <c r="G26" s="282"/>
-      <c r="H26" s="282"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="282"/>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
-      <c r="N26" s="282"/>
-      <c r="O26" s="282"/>
-      <c r="P26" s="282"/>
-      <c r="Q26" s="282"/>
-      <c r="R26" s="282"/>
-      <c r="S26" s="282"/>
-      <c r="T26" s="282"/>
-      <c r="U26" s="282"/>
-      <c r="V26" s="282"/>
-      <c r="W26" s="282"/>
-      <c r="X26" s="282"/>
-      <c r="Y26" s="282"/>
-      <c r="Z26" s="282"/>
-      <c r="AA26" s="282"/>
-      <c r="AB26" s="282"/>
-      <c r="AC26" s="282"/>
-      <c r="AD26" s="282"/>
-      <c r="AE26" s="282"/>
-      <c r="AF26" s="282"/>
-      <c r="AG26" s="282"/>
-      <c r="AH26" s="282"/>
-      <c r="AI26" s="282"/>
-      <c r="AJ26" s="282"/>
+      <c r="A26" s="278"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="278"/>
+      <c r="F26" s="278"/>
+      <c r="G26" s="278"/>
+      <c r="H26" s="278"/>
+      <c r="I26" s="278"/>
+      <c r="J26" s="278"/>
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="278"/>
+      <c r="O26" s="278"/>
+      <c r="P26" s="278"/>
+      <c r="Q26" s="278"/>
+      <c r="R26" s="278"/>
+      <c r="S26" s="278"/>
+      <c r="T26" s="278"/>
+      <c r="U26" s="278"/>
+      <c r="V26" s="278"/>
+      <c r="W26" s="278"/>
+      <c r="X26" s="278"/>
+      <c r="Y26" s="278"/>
+      <c r="Z26" s="278"/>
+      <c r="AA26" s="278"/>
+      <c r="AB26" s="278"/>
+      <c r="AC26" s="278"/>
+      <c r="AD26" s="278"/>
+      <c r="AE26" s="278"/>
+      <c r="AF26" s="278"/>
+      <c r="AG26" s="278"/>
+      <c r="AH26" s="278"/>
+      <c r="AI26" s="278"/>
+      <c r="AJ26" s="278"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A27" s="282"/>
-      <c r="B27" s="282"/>
-      <c r="C27" s="282"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="282"/>
-      <c r="F27" s="282"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="282"/>
-      <c r="I27" s="282"/>
-      <c r="J27" s="282"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="282"/>
-      <c r="M27" s="282"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="282"/>
-      <c r="Q27" s="282"/>
-      <c r="R27" s="282"/>
-      <c r="S27" s="282"/>
-      <c r="T27" s="282"/>
-      <c r="U27" s="282"/>
-      <c r="V27" s="282"/>
-      <c r="W27" s="282"/>
-      <c r="X27" s="282"/>
-      <c r="Y27" s="282"/>
-      <c r="Z27" s="282"/>
-      <c r="AA27" s="282"/>
-      <c r="AB27" s="282"/>
-      <c r="AC27" s="282"/>
-      <c r="AD27" s="282"/>
-      <c r="AE27" s="282"/>
-      <c r="AF27" s="282"/>
-      <c r="AG27" s="282"/>
-      <c r="AH27" s="282"/>
-      <c r="AI27" s="282"/>
-      <c r="AJ27" s="282"/>
+      <c r="A27" s="278"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="278"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="278"/>
+      <c r="O27" s="278"/>
+      <c r="P27" s="278"/>
+      <c r="Q27" s="278"/>
+      <c r="R27" s="278"/>
+      <c r="S27" s="278"/>
+      <c r="T27" s="278"/>
+      <c r="U27" s="278"/>
+      <c r="V27" s="278"/>
+      <c r="W27" s="278"/>
+      <c r="X27" s="278"/>
+      <c r="Y27" s="278"/>
+      <c r="Z27" s="278"/>
+      <c r="AA27" s="278"/>
+      <c r="AB27" s="278"/>
+      <c r="AC27" s="278"/>
+      <c r="AD27" s="278"/>
+      <c r="AE27" s="278"/>
+      <c r="AF27" s="278"/>
+      <c r="AG27" s="278"/>
+      <c r="AH27" s="278"/>
+      <c r="AI27" s="278"/>
+      <c r="AJ27" s="278"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A28" s="282"/>
-      <c r="B28" s="282"/>
-      <c r="C28" s="282"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="282"/>
-      <c r="F28" s="282"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="282"/>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
-      <c r="K28" s="282"/>
-      <c r="L28" s="282"/>
-      <c r="M28" s="282"/>
-      <c r="N28" s="282"/>
-      <c r="O28" s="282"/>
-      <c r="P28" s="282"/>
-      <c r="Q28" s="282"/>
-      <c r="R28" s="282"/>
-      <c r="S28" s="282"/>
-      <c r="T28" s="282"/>
-      <c r="U28" s="282"/>
-      <c r="V28" s="282"/>
-      <c r="W28" s="282"/>
-      <c r="X28" s="282"/>
-      <c r="Y28" s="282"/>
-      <c r="Z28" s="282"/>
-      <c r="AA28" s="282"/>
-      <c r="AB28" s="282"/>
-      <c r="AC28" s="282"/>
-      <c r="AD28" s="282"/>
-      <c r="AE28" s="282"/>
-      <c r="AF28" s="282"/>
-      <c r="AG28" s="282"/>
-      <c r="AH28" s="282"/>
-      <c r="AI28" s="282"/>
-      <c r="AJ28" s="282"/>
+      <c r="A28" s="278"/>
+      <c r="B28" s="278"/>
+      <c r="C28" s="278"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="278"/>
+      <c r="F28" s="278"/>
+      <c r="G28" s="278"/>
+      <c r="H28" s="278"/>
+      <c r="I28" s="278"/>
+      <c r="J28" s="278"/>
+      <c r="K28" s="278"/>
+      <c r="L28" s="278"/>
+      <c r="M28" s="278"/>
+      <c r="N28" s="278"/>
+      <c r="O28" s="278"/>
+      <c r="P28" s="278"/>
+      <c r="Q28" s="278"/>
+      <c r="R28" s="278"/>
+      <c r="S28" s="278"/>
+      <c r="T28" s="278"/>
+      <c r="U28" s="278"/>
+      <c r="V28" s="278"/>
+      <c r="W28" s="278"/>
+      <c r="X28" s="278"/>
+      <c r="Y28" s="278"/>
+      <c r="Z28" s="278"/>
+      <c r="AA28" s="278"/>
+      <c r="AB28" s="278"/>
+      <c r="AC28" s="278"/>
+      <c r="AD28" s="278"/>
+      <c r="AE28" s="278"/>
+      <c r="AF28" s="278"/>
+      <c r="AG28" s="278"/>
+      <c r="AH28" s="278"/>
+      <c r="AI28" s="278"/>
+      <c r="AJ28" s="278"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A29" s="282"/>
-      <c r="B29" s="282"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="282"/>
-      <c r="F29" s="282"/>
-      <c r="G29" s="282"/>
-      <c r="H29" s="282"/>
-      <c r="I29" s="282"/>
-      <c r="J29" s="282"/>
-      <c r="K29" s="282"/>
-      <c r="L29" s="282"/>
-      <c r="M29" s="282"/>
-      <c r="N29" s="282"/>
-      <c r="O29" s="282"/>
-      <c r="P29" s="282"/>
-      <c r="Q29" s="282"/>
-      <c r="R29" s="282"/>
-      <c r="S29" s="282"/>
-      <c r="T29" s="282"/>
-      <c r="U29" s="282"/>
-      <c r="V29" s="282"/>
-      <c r="W29" s="282"/>
-      <c r="X29" s="282"/>
-      <c r="Y29" s="282"/>
-      <c r="Z29" s="282"/>
-      <c r="AA29" s="282"/>
-      <c r="AB29" s="282"/>
-      <c r="AC29" s="282"/>
-      <c r="AD29" s="282"/>
-      <c r="AE29" s="282"/>
-      <c r="AF29" s="282"/>
-      <c r="AG29" s="282"/>
-      <c r="AH29" s="282"/>
-      <c r="AI29" s="282"/>
-      <c r="AJ29" s="282"/>
+      <c r="A29" s="278"/>
+      <c r="B29" s="278"/>
+      <c r="C29" s="278"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="278"/>
+      <c r="F29" s="278"/>
+      <c r="G29" s="278"/>
+      <c r="H29" s="278"/>
+      <c r="I29" s="278"/>
+      <c r="J29" s="278"/>
+      <c r="K29" s="278"/>
+      <c r="L29" s="278"/>
+      <c r="M29" s="278"/>
+      <c r="N29" s="278"/>
+      <c r="O29" s="278"/>
+      <c r="P29" s="278"/>
+      <c r="Q29" s="278"/>
+      <c r="R29" s="278"/>
+      <c r="S29" s="278"/>
+      <c r="T29" s="278"/>
+      <c r="U29" s="278"/>
+      <c r="V29" s="278"/>
+      <c r="W29" s="278"/>
+      <c r="X29" s="278"/>
+      <c r="Y29" s="278"/>
+      <c r="Z29" s="278"/>
+      <c r="AA29" s="278"/>
+      <c r="AB29" s="278"/>
+      <c r="AC29" s="278"/>
+      <c r="AD29" s="278"/>
+      <c r="AE29" s="278"/>
+      <c r="AF29" s="278"/>
+      <c r="AG29" s="278"/>
+      <c r="AH29" s="278"/>
+      <c r="AI29" s="278"/>
+      <c r="AJ29" s="278"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A30" s="282"/>
-      <c r="B30" s="282"/>
-      <c r="C30" s="282"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="282"/>
-      <c r="F30" s="282"/>
-      <c r="G30" s="282"/>
-      <c r="H30" s="282"/>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
-      <c r="K30" s="282"/>
-      <c r="L30" s="282"/>
-      <c r="M30" s="282"/>
-      <c r="N30" s="282"/>
-      <c r="O30" s="282"/>
-      <c r="P30" s="282"/>
-      <c r="Q30" s="282"/>
-      <c r="R30" s="282"/>
-      <c r="S30" s="282"/>
-      <c r="T30" s="282"/>
-      <c r="U30" s="282"/>
-      <c r="V30" s="282"/>
-      <c r="W30" s="282"/>
-      <c r="X30" s="282"/>
-      <c r="Y30" s="282"/>
-      <c r="Z30" s="282"/>
-      <c r="AA30" s="282"/>
-      <c r="AB30" s="282"/>
-      <c r="AC30" s="282"/>
-      <c r="AD30" s="282"/>
-      <c r="AE30" s="282"/>
-      <c r="AF30" s="282"/>
-      <c r="AG30" s="282"/>
-      <c r="AH30" s="282"/>
-      <c r="AI30" s="282"/>
-      <c r="AJ30" s="282"/>
+      <c r="A30" s="278"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="278"/>
+      <c r="I30" s="278"/>
+      <c r="J30" s="278"/>
+      <c r="K30" s="278"/>
+      <c r="L30" s="278"/>
+      <c r="M30" s="278"/>
+      <c r="N30" s="278"/>
+      <c r="O30" s="278"/>
+      <c r="P30" s="278"/>
+      <c r="Q30" s="278"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="278"/>
+      <c r="T30" s="278"/>
+      <c r="U30" s="278"/>
+      <c r="V30" s="278"/>
+      <c r="W30" s="278"/>
+      <c r="X30" s="278"/>
+      <c r="Y30" s="278"/>
+      <c r="Z30" s="278"/>
+      <c r="AA30" s="278"/>
+      <c r="AB30" s="278"/>
+      <c r="AC30" s="278"/>
+      <c r="AD30" s="278"/>
+      <c r="AE30" s="278"/>
+      <c r="AF30" s="278"/>
+      <c r="AG30" s="278"/>
+      <c r="AH30" s="278"/>
+      <c r="AI30" s="278"/>
+      <c r="AJ30" s="278"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A31" s="282"/>
-      <c r="B31" s="282"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="282"/>
-      <c r="F31" s="282"/>
-      <c r="G31" s="282"/>
-      <c r="H31" s="282"/>
-      <c r="I31" s="282"/>
-      <c r="J31" s="282"/>
-      <c r="K31" s="282"/>
-      <c r="L31" s="282"/>
-      <c r="M31" s="282"/>
-      <c r="N31" s="282"/>
-      <c r="O31" s="282"/>
-      <c r="P31" s="282"/>
-      <c r="Q31" s="282"/>
-      <c r="R31" s="282"/>
-      <c r="S31" s="282"/>
-      <c r="T31" s="282"/>
-      <c r="U31" s="282"/>
-      <c r="V31" s="282"/>
-      <c r="W31" s="282"/>
-      <c r="X31" s="282"/>
-      <c r="Y31" s="282"/>
-      <c r="Z31" s="282"/>
-      <c r="AA31" s="282"/>
-      <c r="AB31" s="282"/>
-      <c r="AC31" s="282"/>
-      <c r="AD31" s="282"/>
-      <c r="AE31" s="282"/>
-      <c r="AF31" s="282"/>
-      <c r="AG31" s="282"/>
-      <c r="AH31" s="282"/>
-      <c r="AI31" s="282"/>
-      <c r="AJ31" s="282"/>
+      <c r="A31" s="278"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="278"/>
+      <c r="H31" s="278"/>
+      <c r="I31" s="278"/>
+      <c r="J31" s="278"/>
+      <c r="K31" s="278"/>
+      <c r="L31" s="278"/>
+      <c r="M31" s="278"/>
+      <c r="N31" s="278"/>
+      <c r="O31" s="278"/>
+      <c r="P31" s="278"/>
+      <c r="Q31" s="278"/>
+      <c r="R31" s="278"/>
+      <c r="S31" s="278"/>
+      <c r="T31" s="278"/>
+      <c r="U31" s="278"/>
+      <c r="V31" s="278"/>
+      <c r="W31" s="278"/>
+      <c r="X31" s="278"/>
+      <c r="Y31" s="278"/>
+      <c r="Z31" s="278"/>
+      <c r="AA31" s="278"/>
+      <c r="AB31" s="278"/>
+      <c r="AC31" s="278"/>
+      <c r="AD31" s="278"/>
+      <c r="AE31" s="278"/>
+      <c r="AF31" s="278"/>
+      <c r="AG31" s="278"/>
+      <c r="AH31" s="278"/>
+      <c r="AI31" s="278"/>
+      <c r="AJ31" s="278"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A32" s="282"/>
-      <c r="B32" s="282"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="282"/>
-      <c r="F32" s="282"/>
-      <c r="G32" s="282"/>
-      <c r="H32" s="282"/>
-      <c r="I32" s="282"/>
-      <c r="J32" s="282"/>
-      <c r="K32" s="282"/>
-      <c r="L32" s="282"/>
-      <c r="M32" s="282"/>
-      <c r="N32" s="282"/>
-      <c r="O32" s="282"/>
-      <c r="P32" s="282"/>
-      <c r="Q32" s="282"/>
-      <c r="R32" s="282"/>
-      <c r="S32" s="282"/>
-      <c r="T32" s="282"/>
-      <c r="U32" s="282"/>
-      <c r="V32" s="282"/>
-      <c r="W32" s="282"/>
-      <c r="X32" s="282"/>
-      <c r="Y32" s="282"/>
-      <c r="Z32" s="282"/>
-      <c r="AA32" s="282"/>
-      <c r="AB32" s="282"/>
-      <c r="AC32" s="282"/>
-      <c r="AD32" s="282"/>
-      <c r="AE32" s="282"/>
-      <c r="AF32" s="282"/>
-      <c r="AG32" s="282"/>
-      <c r="AH32" s="282"/>
-      <c r="AI32" s="282"/>
-      <c r="AJ32" s="282"/>
+      <c r="A32" s="278"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="278"/>
+      <c r="I32" s="278"/>
+      <c r="J32" s="278"/>
+      <c r="K32" s="278"/>
+      <c r="L32" s="278"/>
+      <c r="M32" s="278"/>
+      <c r="N32" s="278"/>
+      <c r="O32" s="278"/>
+      <c r="P32" s="278"/>
+      <c r="Q32" s="278"/>
+      <c r="R32" s="278"/>
+      <c r="S32" s="278"/>
+      <c r="T32" s="278"/>
+      <c r="U32" s="278"/>
+      <c r="V32" s="278"/>
+      <c r="W32" s="278"/>
+      <c r="X32" s="278"/>
+      <c r="Y32" s="278"/>
+      <c r="Z32" s="278"/>
+      <c r="AA32" s="278"/>
+      <c r="AB32" s="278"/>
+      <c r="AC32" s="278"/>
+      <c r="AD32" s="278"/>
+      <c r="AE32" s="278"/>
+      <c r="AF32" s="278"/>
+      <c r="AG32" s="278"/>
+      <c r="AH32" s="278"/>
+      <c r="AI32" s="278"/>
+      <c r="AJ32" s="278"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A33" s="282"/>
-      <c r="B33" s="282"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="282"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="282"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="282"/>
-      <c r="K33" s="282"/>
-      <c r="L33" s="282"/>
-      <c r="M33" s="282"/>
-      <c r="N33" s="282"/>
-      <c r="O33" s="282"/>
-      <c r="P33" s="282"/>
-      <c r="Q33" s="282"/>
-      <c r="R33" s="282"/>
-      <c r="S33" s="282"/>
-      <c r="T33" s="282"/>
-      <c r="U33" s="282"/>
-      <c r="V33" s="282"/>
-      <c r="W33" s="282"/>
-      <c r="X33" s="282"/>
-      <c r="Y33" s="282"/>
-      <c r="Z33" s="282"/>
-      <c r="AA33" s="282"/>
-      <c r="AB33" s="282"/>
-      <c r="AC33" s="282"/>
-      <c r="AD33" s="282"/>
-      <c r="AE33" s="282"/>
-      <c r="AF33" s="282"/>
-      <c r="AG33" s="282"/>
-      <c r="AH33" s="282"/>
-      <c r="AI33" s="282"/>
-      <c r="AJ33" s="282"/>
+      <c r="A33" s="278"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="278"/>
+      <c r="E33" s="278"/>
+      <c r="F33" s="278"/>
+      <c r="G33" s="278"/>
+      <c r="H33" s="278"/>
+      <c r="I33" s="278"/>
+      <c r="J33" s="278"/>
+      <c r="K33" s="278"/>
+      <c r="L33" s="278"/>
+      <c r="M33" s="278"/>
+      <c r="N33" s="278"/>
+      <c r="O33" s="278"/>
+      <c r="P33" s="278"/>
+      <c r="Q33" s="278"/>
+      <c r="R33" s="278"/>
+      <c r="S33" s="278"/>
+      <c r="T33" s="278"/>
+      <c r="U33" s="278"/>
+      <c r="V33" s="278"/>
+      <c r="W33" s="278"/>
+      <c r="X33" s="278"/>
+      <c r="Y33" s="278"/>
+      <c r="Z33" s="278"/>
+      <c r="AA33" s="278"/>
+      <c r="AB33" s="278"/>
+      <c r="AC33" s="278"/>
+      <c r="AD33" s="278"/>
+      <c r="AE33" s="278"/>
+      <c r="AF33" s="278"/>
+      <c r="AG33" s="278"/>
+      <c r="AH33" s="278"/>
+      <c r="AI33" s="278"/>
+      <c r="AJ33" s="278"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A34" s="282"/>
-      <c r="B34" s="282"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="282"/>
-      <c r="F34" s="282"/>
-      <c r="G34" s="282"/>
-      <c r="H34" s="282"/>
-      <c r="I34" s="282"/>
-      <c r="J34" s="282"/>
-      <c r="K34" s="282"/>
-      <c r="L34" s="282"/>
-      <c r="M34" s="282"/>
-      <c r="N34" s="282"/>
-      <c r="O34" s="282"/>
-      <c r="P34" s="282"/>
-      <c r="Q34" s="282"/>
-      <c r="R34" s="282"/>
-      <c r="S34" s="282"/>
-      <c r="T34" s="282"/>
-      <c r="U34" s="282"/>
-      <c r="V34" s="282"/>
-      <c r="W34" s="282"/>
-      <c r="X34" s="282"/>
-      <c r="Y34" s="282"/>
-      <c r="Z34" s="282"/>
-      <c r="AA34" s="282"/>
-      <c r="AB34" s="282"/>
-      <c r="AC34" s="282"/>
-      <c r="AD34" s="282"/>
-      <c r="AE34" s="282"/>
-      <c r="AF34" s="282"/>
-      <c r="AG34" s="282"/>
-      <c r="AH34" s="282"/>
-      <c r="AI34" s="282"/>
-      <c r="AJ34" s="282"/>
+      <c r="A34" s="278"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="278"/>
+      <c r="E34" s="278"/>
+      <c r="F34" s="278"/>
+      <c r="G34" s="278"/>
+      <c r="H34" s="278"/>
+      <c r="I34" s="278"/>
+      <c r="J34" s="278"/>
+      <c r="K34" s="278"/>
+      <c r="L34" s="278"/>
+      <c r="M34" s="278"/>
+      <c r="N34" s="278"/>
+      <c r="O34" s="278"/>
+      <c r="P34" s="278"/>
+      <c r="Q34" s="278"/>
+      <c r="R34" s="278"/>
+      <c r="S34" s="278"/>
+      <c r="T34" s="278"/>
+      <c r="U34" s="278"/>
+      <c r="V34" s="278"/>
+      <c r="W34" s="278"/>
+      <c r="X34" s="278"/>
+      <c r="Y34" s="278"/>
+      <c r="Z34" s="278"/>
+      <c r="AA34" s="278"/>
+      <c r="AB34" s="278"/>
+      <c r="AC34" s="278"/>
+      <c r="AD34" s="278"/>
+      <c r="AE34" s="278"/>
+      <c r="AF34" s="278"/>
+      <c r="AG34" s="278"/>
+      <c r="AH34" s="278"/>
+      <c r="AI34" s="278"/>
+      <c r="AJ34" s="278"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A35" s="282"/>
-      <c r="B35" s="282"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="282"/>
-      <c r="E35" s="282"/>
-      <c r="F35" s="282"/>
-      <c r="G35" s="282"/>
-      <c r="H35" s="282"/>
-      <c r="I35" s="282"/>
-      <c r="J35" s="282"/>
-      <c r="K35" s="282"/>
-      <c r="L35" s="282"/>
-      <c r="M35" s="282"/>
-      <c r="N35" s="282"/>
-      <c r="O35" s="282"/>
-      <c r="P35" s="282"/>
-      <c r="Q35" s="282"/>
-      <c r="R35" s="282"/>
-      <c r="S35" s="282"/>
-      <c r="T35" s="282"/>
-      <c r="U35" s="282"/>
-      <c r="V35" s="282"/>
-      <c r="W35" s="282"/>
-      <c r="X35" s="282"/>
-      <c r="Y35" s="282"/>
-      <c r="Z35" s="282"/>
-      <c r="AA35" s="282"/>
-      <c r="AB35" s="282"/>
-      <c r="AC35" s="282"/>
-      <c r="AD35" s="282"/>
-      <c r="AE35" s="282"/>
-      <c r="AF35" s="282"/>
-      <c r="AG35" s="282"/>
-      <c r="AH35" s="282"/>
-      <c r="AI35" s="282"/>
-      <c r="AJ35" s="282"/>
+      <c r="A35" s="278"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="278"/>
+      <c r="E35" s="278"/>
+      <c r="F35" s="278"/>
+      <c r="G35" s="278"/>
+      <c r="H35" s="278"/>
+      <c r="I35" s="278"/>
+      <c r="J35" s="278"/>
+      <c r="K35" s="278"/>
+      <c r="L35" s="278"/>
+      <c r="M35" s="278"/>
+      <c r="N35" s="278"/>
+      <c r="O35" s="278"/>
+      <c r="P35" s="278"/>
+      <c r="Q35" s="278"/>
+      <c r="R35" s="278"/>
+      <c r="S35" s="278"/>
+      <c r="T35" s="278"/>
+      <c r="U35" s="278"/>
+      <c r="V35" s="278"/>
+      <c r="W35" s="278"/>
+      <c r="X35" s="278"/>
+      <c r="Y35" s="278"/>
+      <c r="Z35" s="278"/>
+      <c r="AA35" s="278"/>
+      <c r="AB35" s="278"/>
+      <c r="AC35" s="278"/>
+      <c r="AD35" s="278"/>
+      <c r="AE35" s="278"/>
+      <c r="AF35" s="278"/>
+      <c r="AG35" s="278"/>
+      <c r="AH35" s="278"/>
+      <c r="AI35" s="278"/>
+      <c r="AJ35" s="278"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A36" s="282"/>
-      <c r="B36" s="282"/>
-      <c r="C36" s="282"/>
-      <c r="D36" s="282"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="282"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
-      <c r="M36" s="282"/>
-      <c r="N36" s="282"/>
-      <c r="O36" s="282"/>
-      <c r="P36" s="282"/>
-      <c r="Q36" s="282"/>
-      <c r="R36" s="282"/>
-      <c r="S36" s="282"/>
-      <c r="T36" s="282"/>
-      <c r="U36" s="282"/>
-      <c r="V36" s="282"/>
-      <c r="W36" s="282"/>
-      <c r="X36" s="282"/>
-      <c r="Y36" s="282"/>
-      <c r="Z36" s="282"/>
-      <c r="AA36" s="282"/>
-      <c r="AB36" s="282"/>
-      <c r="AC36" s="282"/>
-      <c r="AD36" s="282"/>
-      <c r="AE36" s="282"/>
-      <c r="AF36" s="282"/>
-      <c r="AG36" s="282"/>
-      <c r="AH36" s="282"/>
-      <c r="AI36" s="282"/>
-      <c r="AJ36" s="282"/>
+      <c r="A36" s="278"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="278"/>
+      <c r="E36" s="278"/>
+      <c r="F36" s="278"/>
+      <c r="G36" s="278"/>
+      <c r="H36" s="278"/>
+      <c r="I36" s="278"/>
+      <c r="J36" s="278"/>
+      <c r="K36" s="278"/>
+      <c r="L36" s="278"/>
+      <c r="M36" s="278"/>
+      <c r="N36" s="278"/>
+      <c r="O36" s="278"/>
+      <c r="P36" s="278"/>
+      <c r="Q36" s="278"/>
+      <c r="R36" s="278"/>
+      <c r="S36" s="278"/>
+      <c r="T36" s="278"/>
+      <c r="U36" s="278"/>
+      <c r="V36" s="278"/>
+      <c r="W36" s="278"/>
+      <c r="X36" s="278"/>
+      <c r="Y36" s="278"/>
+      <c r="Z36" s="278"/>
+      <c r="AA36" s="278"/>
+      <c r="AB36" s="278"/>
+      <c r="AC36" s="278"/>
+      <c r="AD36" s="278"/>
+      <c r="AE36" s="278"/>
+      <c r="AF36" s="278"/>
+      <c r="AG36" s="278"/>
+      <c r="AH36" s="278"/>
+      <c r="AI36" s="278"/>
+      <c r="AJ36" s="278"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A37" s="282"/>
-      <c r="B37" s="282"/>
-      <c r="C37" s="282"/>
-      <c r="D37" s="282"/>
-      <c r="E37" s="282"/>
-      <c r="F37" s="282"/>
-      <c r="G37" s="282"/>
-      <c r="H37" s="282"/>
-      <c r="I37" s="282"/>
-      <c r="J37" s="282"/>
-      <c r="K37" s="282"/>
-      <c r="L37" s="282"/>
-      <c r="M37" s="282"/>
-      <c r="N37" s="282"/>
-      <c r="O37" s="282"/>
-      <c r="P37" s="282"/>
-      <c r="Q37" s="282"/>
-      <c r="R37" s="282"/>
-      <c r="S37" s="282"/>
-      <c r="T37" s="282"/>
-      <c r="U37" s="282"/>
-      <c r="V37" s="282"/>
-      <c r="W37" s="282"/>
-      <c r="X37" s="282"/>
-      <c r="Y37" s="282"/>
-      <c r="Z37" s="282"/>
-      <c r="AA37" s="282"/>
-      <c r="AB37" s="282"/>
-      <c r="AC37" s="282"/>
-      <c r="AD37" s="282"/>
-      <c r="AE37" s="282"/>
-      <c r="AF37" s="282"/>
-      <c r="AG37" s="282"/>
-      <c r="AH37" s="282"/>
-      <c r="AI37" s="282"/>
-      <c r="AJ37" s="282"/>
+      <c r="A37" s="278"/>
+      <c r="B37" s="278"/>
+      <c r="C37" s="278"/>
+      <c r="D37" s="278"/>
+      <c r="E37" s="278"/>
+      <c r="F37" s="278"/>
+      <c r="G37" s="278"/>
+      <c r="H37" s="278"/>
+      <c r="I37" s="278"/>
+      <c r="J37" s="278"/>
+      <c r="K37" s="278"/>
+      <c r="L37" s="278"/>
+      <c r="M37" s="278"/>
+      <c r="N37" s="278"/>
+      <c r="O37" s="278"/>
+      <c r="P37" s="278"/>
+      <c r="Q37" s="278"/>
+      <c r="R37" s="278"/>
+      <c r="S37" s="278"/>
+      <c r="T37" s="278"/>
+      <c r="U37" s="278"/>
+      <c r="V37" s="278"/>
+      <c r="W37" s="278"/>
+      <c r="X37" s="278"/>
+      <c r="Y37" s="278"/>
+      <c r="Z37" s="278"/>
+      <c r="AA37" s="278"/>
+      <c r="AB37" s="278"/>
+      <c r="AC37" s="278"/>
+      <c r="AD37" s="278"/>
+      <c r="AE37" s="278"/>
+      <c r="AF37" s="278"/>
+      <c r="AG37" s="278"/>
+      <c r="AH37" s="278"/>
+      <c r="AI37" s="278"/>
+      <c r="AJ37" s="278"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A38" s="282"/>
-      <c r="B38" s="282"/>
-      <c r="C38" s="282"/>
-      <c r="D38" s="282"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
-      <c r="G38" s="282"/>
-      <c r="H38" s="282"/>
-      <c r="I38" s="282"/>
-      <c r="J38" s="282"/>
-      <c r="K38" s="282"/>
-      <c r="L38" s="282"/>
-      <c r="M38" s="282"/>
-      <c r="N38" s="282"/>
-      <c r="O38" s="282"/>
-      <c r="P38" s="282"/>
-      <c r="Q38" s="282"/>
-      <c r="R38" s="282"/>
-      <c r="S38" s="282"/>
-      <c r="T38" s="282"/>
-      <c r="U38" s="282"/>
-      <c r="V38" s="282"/>
-      <c r="W38" s="282"/>
-      <c r="X38" s="282"/>
-      <c r="Y38" s="282"/>
-      <c r="Z38" s="282"/>
-      <c r="AA38" s="282"/>
-      <c r="AB38" s="282"/>
-      <c r="AC38" s="282"/>
-      <c r="AD38" s="282"/>
-      <c r="AE38" s="282"/>
-      <c r="AF38" s="282"/>
-      <c r="AG38" s="282"/>
-      <c r="AH38" s="282"/>
-      <c r="AI38" s="282"/>
-      <c r="AJ38" s="282"/>
+      <c r="A38" s="278"/>
+      <c r="B38" s="278"/>
+      <c r="C38" s="278"/>
+      <c r="D38" s="278"/>
+      <c r="E38" s="278"/>
+      <c r="F38" s="278"/>
+      <c r="G38" s="278"/>
+      <c r="H38" s="278"/>
+      <c r="I38" s="278"/>
+      <c r="J38" s="278"/>
+      <c r="K38" s="278"/>
+      <c r="L38" s="278"/>
+      <c r="M38" s="278"/>
+      <c r="N38" s="278"/>
+      <c r="O38" s="278"/>
+      <c r="P38" s="278"/>
+      <c r="Q38" s="278"/>
+      <c r="R38" s="278"/>
+      <c r="S38" s="278"/>
+      <c r="T38" s="278"/>
+      <c r="U38" s="278"/>
+      <c r="V38" s="278"/>
+      <c r="W38" s="278"/>
+      <c r="X38" s="278"/>
+      <c r="Y38" s="278"/>
+      <c r="Z38" s="278"/>
+      <c r="AA38" s="278"/>
+      <c r="AB38" s="278"/>
+      <c r="AC38" s="278"/>
+      <c r="AD38" s="278"/>
+      <c r="AE38" s="278"/>
+      <c r="AF38" s="278"/>
+      <c r="AG38" s="278"/>
+      <c r="AH38" s="278"/>
+      <c r="AI38" s="278"/>
+      <c r="AJ38" s="278"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A39" s="282"/>
-      <c r="B39" s="282"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
-      <c r="H39" s="282"/>
-      <c r="I39" s="282"/>
-      <c r="J39" s="282"/>
-      <c r="K39" s="282"/>
-      <c r="L39" s="282"/>
-      <c r="M39" s="282"/>
-      <c r="N39" s="282"/>
-      <c r="O39" s="282"/>
-      <c r="P39" s="282"/>
-      <c r="Q39" s="282"/>
-      <c r="R39" s="282"/>
-      <c r="S39" s="282"/>
-      <c r="T39" s="282"/>
-      <c r="U39" s="282"/>
-      <c r="V39" s="282"/>
-      <c r="W39" s="282"/>
-      <c r="X39" s="282"/>
-      <c r="Y39" s="282"/>
-      <c r="Z39" s="282"/>
-      <c r="AA39" s="282"/>
-      <c r="AB39" s="282"/>
-      <c r="AC39" s="282"/>
-      <c r="AD39" s="282"/>
-      <c r="AE39" s="282"/>
-      <c r="AF39" s="282"/>
-      <c r="AG39" s="282"/>
-      <c r="AH39" s="282"/>
-      <c r="AI39" s="282"/>
-      <c r="AJ39" s="282"/>
+      <c r="A39" s="278"/>
+      <c r="B39" s="278"/>
+      <c r="C39" s="278"/>
+      <c r="D39" s="278"/>
+      <c r="E39" s="278"/>
+      <c r="F39" s="278"/>
+      <c r="G39" s="278"/>
+      <c r="H39" s="278"/>
+      <c r="I39" s="278"/>
+      <c r="J39" s="278"/>
+      <c r="K39" s="278"/>
+      <c r="L39" s="278"/>
+      <c r="M39" s="278"/>
+      <c r="N39" s="278"/>
+      <c r="O39" s="278"/>
+      <c r="P39" s="278"/>
+      <c r="Q39" s="278"/>
+      <c r="R39" s="278"/>
+      <c r="S39" s="278"/>
+      <c r="T39" s="278"/>
+      <c r="U39" s="278"/>
+      <c r="V39" s="278"/>
+      <c r="W39" s="278"/>
+      <c r="X39" s="278"/>
+      <c r="Y39" s="278"/>
+      <c r="Z39" s="278"/>
+      <c r="AA39" s="278"/>
+      <c r="AB39" s="278"/>
+      <c r="AC39" s="278"/>
+      <c r="AD39" s="278"/>
+      <c r="AE39" s="278"/>
+      <c r="AF39" s="278"/>
+      <c r="AG39" s="278"/>
+      <c r="AH39" s="278"/>
+      <c r="AI39" s="278"/>
+      <c r="AJ39" s="278"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A40" s="282"/>
-      <c r="B40" s="282"/>
-      <c r="C40" s="282"/>
-      <c r="D40" s="282"/>
-      <c r="E40" s="282"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="282"/>
-      <c r="H40" s="282"/>
-      <c r="I40" s="282"/>
-      <c r="J40" s="282"/>
-      <c r="K40" s="282"/>
-      <c r="L40" s="282"/>
-      <c r="M40" s="282"/>
-      <c r="N40" s="282"/>
-      <c r="O40" s="282"/>
-      <c r="P40" s="282"/>
-      <c r="Q40" s="282"/>
-      <c r="R40" s="282"/>
-      <c r="S40" s="282"/>
-      <c r="T40" s="282"/>
-      <c r="U40" s="282"/>
-      <c r="V40" s="282"/>
-      <c r="W40" s="282"/>
-      <c r="X40" s="282"/>
-      <c r="Y40" s="282"/>
-      <c r="Z40" s="282"/>
-      <c r="AA40" s="282"/>
-      <c r="AB40" s="282"/>
-      <c r="AC40" s="282"/>
-      <c r="AD40" s="282"/>
-      <c r="AE40" s="282"/>
-      <c r="AF40" s="282"/>
-      <c r="AG40" s="282"/>
-      <c r="AH40" s="282"/>
-      <c r="AI40" s="282"/>
-      <c r="AJ40" s="282"/>
+      <c r="A40" s="278"/>
+      <c r="B40" s="278"/>
+      <c r="C40" s="278"/>
+      <c r="D40" s="278"/>
+      <c r="E40" s="278"/>
+      <c r="F40" s="278"/>
+      <c r="G40" s="278"/>
+      <c r="H40" s="278"/>
+      <c r="I40" s="278"/>
+      <c r="J40" s="278"/>
+      <c r="K40" s="278"/>
+      <c r="L40" s="278"/>
+      <c r="M40" s="278"/>
+      <c r="N40" s="278"/>
+      <c r="O40" s="278"/>
+      <c r="P40" s="278"/>
+      <c r="Q40" s="278"/>
+      <c r="R40" s="278"/>
+      <c r="S40" s="278"/>
+      <c r="T40" s="278"/>
+      <c r="U40" s="278"/>
+      <c r="V40" s="278"/>
+      <c r="W40" s="278"/>
+      <c r="X40" s="278"/>
+      <c r="Y40" s="278"/>
+      <c r="Z40" s="278"/>
+      <c r="AA40" s="278"/>
+      <c r="AB40" s="278"/>
+      <c r="AC40" s="278"/>
+      <c r="AD40" s="278"/>
+      <c r="AE40" s="278"/>
+      <c r="AF40" s="278"/>
+      <c r="AG40" s="278"/>
+      <c r="AH40" s="278"/>
+      <c r="AI40" s="278"/>
+      <c r="AJ40" s="278"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A41" s="282"/>
-      <c r="B41" s="282"/>
-      <c r="C41" s="282"/>
-      <c r="D41" s="282"/>
-      <c r="E41" s="282"/>
-      <c r="F41" s="282"/>
-      <c r="G41" s="282"/>
-      <c r="H41" s="282"/>
-      <c r="I41" s="282"/>
-      <c r="J41" s="282"/>
-      <c r="K41" s="282"/>
-      <c r="L41" s="282"/>
-      <c r="M41" s="282"/>
-      <c r="N41" s="282"/>
-      <c r="O41" s="282"/>
-      <c r="P41" s="282"/>
-      <c r="Q41" s="282"/>
-      <c r="R41" s="282"/>
-      <c r="S41" s="282"/>
-      <c r="T41" s="282"/>
-      <c r="U41" s="282"/>
-      <c r="V41" s="282"/>
-      <c r="W41" s="282"/>
-      <c r="X41" s="282"/>
-      <c r="Y41" s="282"/>
-      <c r="Z41" s="282"/>
-      <c r="AA41" s="282"/>
-      <c r="AB41" s="282"/>
-      <c r="AC41" s="282"/>
-      <c r="AD41" s="282"/>
-      <c r="AE41" s="282"/>
-      <c r="AF41" s="282"/>
-      <c r="AG41" s="282"/>
-      <c r="AH41" s="282"/>
-      <c r="AI41" s="282"/>
-      <c r="AJ41" s="282"/>
+      <c r="A41" s="278"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="278"/>
+      <c r="D41" s="278"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="278"/>
+      <c r="G41" s="278"/>
+      <c r="H41" s="278"/>
+      <c r="I41" s="278"/>
+      <c r="J41" s="278"/>
+      <c r="K41" s="278"/>
+      <c r="L41" s="278"/>
+      <c r="M41" s="278"/>
+      <c r="N41" s="278"/>
+      <c r="O41" s="278"/>
+      <c r="P41" s="278"/>
+      <c r="Q41" s="278"/>
+      <c r="R41" s="278"/>
+      <c r="S41" s="278"/>
+      <c r="T41" s="278"/>
+      <c r="U41" s="278"/>
+      <c r="V41" s="278"/>
+      <c r="W41" s="278"/>
+      <c r="X41" s="278"/>
+      <c r="Y41" s="278"/>
+      <c r="Z41" s="278"/>
+      <c r="AA41" s="278"/>
+      <c r="AB41" s="278"/>
+      <c r="AC41" s="278"/>
+      <c r="AD41" s="278"/>
+      <c r="AE41" s="278"/>
+      <c r="AF41" s="278"/>
+      <c r="AG41" s="278"/>
+      <c r="AH41" s="278"/>
+      <c r="AI41" s="278"/>
+      <c r="AJ41" s="278"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A42" s="282"/>
-      <c r="B42" s="282"/>
-      <c r="C42" s="282"/>
-      <c r="D42" s="282"/>
-      <c r="E42" s="282"/>
-      <c r="F42" s="282"/>
-      <c r="G42" s="282"/>
-      <c r="H42" s="282"/>
-      <c r="I42" s="282"/>
-      <c r="J42" s="282"/>
-      <c r="K42" s="282"/>
-      <c r="L42" s="282"/>
-      <c r="M42" s="282"/>
-      <c r="N42" s="282"/>
-      <c r="O42" s="282"/>
-      <c r="P42" s="282"/>
-      <c r="Q42" s="282"/>
-      <c r="R42" s="282"/>
-      <c r="S42" s="282"/>
-      <c r="T42" s="282"/>
-      <c r="U42" s="282"/>
-      <c r="V42" s="282"/>
-      <c r="W42" s="282"/>
-      <c r="X42" s="282"/>
-      <c r="Y42" s="282"/>
-      <c r="Z42" s="282"/>
-      <c r="AA42" s="282"/>
-      <c r="AB42" s="282"/>
-      <c r="AC42" s="282"/>
-      <c r="AD42" s="282"/>
-      <c r="AE42" s="282"/>
-      <c r="AF42" s="282"/>
-      <c r="AG42" s="282"/>
-      <c r="AH42" s="282"/>
-      <c r="AI42" s="282"/>
-      <c r="AJ42" s="282"/>
+      <c r="A42" s="278"/>
+      <c r="B42" s="278"/>
+      <c r="C42" s="278"/>
+      <c r="D42" s="278"/>
+      <c r="E42" s="278"/>
+      <c r="F42" s="278"/>
+      <c r="G42" s="278"/>
+      <c r="H42" s="278"/>
+      <c r="I42" s="278"/>
+      <c r="J42" s="278"/>
+      <c r="K42" s="278"/>
+      <c r="L42" s="278"/>
+      <c r="M42" s="278"/>
+      <c r="N42" s="278"/>
+      <c r="O42" s="278"/>
+      <c r="P42" s="278"/>
+      <c r="Q42" s="278"/>
+      <c r="R42" s="278"/>
+      <c r="S42" s="278"/>
+      <c r="T42" s="278"/>
+      <c r="U42" s="278"/>
+      <c r="V42" s="278"/>
+      <c r="W42" s="278"/>
+      <c r="X42" s="278"/>
+      <c r="Y42" s="278"/>
+      <c r="Z42" s="278"/>
+      <c r="AA42" s="278"/>
+      <c r="AB42" s="278"/>
+      <c r="AC42" s="278"/>
+      <c r="AD42" s="278"/>
+      <c r="AE42" s="278"/>
+      <c r="AF42" s="278"/>
+      <c r="AG42" s="278"/>
+      <c r="AH42" s="278"/>
+      <c r="AI42" s="278"/>
+      <c r="AJ42" s="278"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A43" s="282"/>
-      <c r="B43" s="282"/>
-      <c r="C43" s="282"/>
-      <c r="D43" s="282"/>
-      <c r="E43" s="282"/>
-      <c r="F43" s="282"/>
-      <c r="G43" s="282"/>
-      <c r="H43" s="282"/>
-      <c r="I43" s="282"/>
-      <c r="J43" s="282"/>
-      <c r="K43" s="282"/>
-      <c r="L43" s="282"/>
-      <c r="M43" s="282"/>
-      <c r="N43" s="282"/>
-      <c r="O43" s="282"/>
-      <c r="P43" s="282"/>
-      <c r="Q43" s="282"/>
-      <c r="R43" s="282"/>
-      <c r="S43" s="282"/>
-      <c r="T43" s="282"/>
-      <c r="U43" s="282"/>
-      <c r="V43" s="282"/>
-      <c r="W43" s="282"/>
-      <c r="X43" s="282"/>
-      <c r="Y43" s="282"/>
-      <c r="Z43" s="282"/>
-      <c r="AA43" s="282"/>
-      <c r="AB43" s="282"/>
-      <c r="AC43" s="282"/>
-      <c r="AD43" s="282"/>
-      <c r="AE43" s="282"/>
-      <c r="AF43" s="282"/>
-      <c r="AG43" s="282"/>
-      <c r="AH43" s="282"/>
-      <c r="AI43" s="282"/>
-      <c r="AJ43" s="282"/>
+      <c r="A43" s="278"/>
+      <c r="B43" s="278"/>
+      <c r="C43" s="278"/>
+      <c r="D43" s="278"/>
+      <c r="E43" s="278"/>
+      <c r="F43" s="278"/>
+      <c r="G43" s="278"/>
+      <c r="H43" s="278"/>
+      <c r="I43" s="278"/>
+      <c r="J43" s="278"/>
+      <c r="K43" s="278"/>
+      <c r="L43" s="278"/>
+      <c r="M43" s="278"/>
+      <c r="N43" s="278"/>
+      <c r="O43" s="278"/>
+      <c r="P43" s="278"/>
+      <c r="Q43" s="278"/>
+      <c r="R43" s="278"/>
+      <c r="S43" s="278"/>
+      <c r="T43" s="278"/>
+      <c r="U43" s="278"/>
+      <c r="V43" s="278"/>
+      <c r="W43" s="278"/>
+      <c r="X43" s="278"/>
+      <c r="Y43" s="278"/>
+      <c r="Z43" s="278"/>
+      <c r="AA43" s="278"/>
+      <c r="AB43" s="278"/>
+      <c r="AC43" s="278"/>
+      <c r="AD43" s="278"/>
+      <c r="AE43" s="278"/>
+      <c r="AF43" s="278"/>
+      <c r="AG43" s="278"/>
+      <c r="AH43" s="278"/>
+      <c r="AI43" s="278"/>
+      <c r="AJ43" s="278"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A44" s="282"/>
-      <c r="B44" s="282"/>
-      <c r="C44" s="282"/>
-      <c r="D44" s="282"/>
-      <c r="E44" s="282"/>
-      <c r="F44" s="282"/>
-      <c r="G44" s="282"/>
-      <c r="H44" s="282"/>
-      <c r="I44" s="282"/>
-      <c r="J44" s="282"/>
-      <c r="K44" s="282"/>
-      <c r="L44" s="282"/>
-      <c r="M44" s="282"/>
-      <c r="N44" s="282"/>
-      <c r="O44" s="282"/>
-      <c r="P44" s="282"/>
-      <c r="Q44" s="282"/>
-      <c r="R44" s="282"/>
-      <c r="S44" s="282"/>
-      <c r="T44" s="282"/>
-      <c r="U44" s="282"/>
-      <c r="V44" s="282"/>
-      <c r="W44" s="282"/>
-      <c r="X44" s="282"/>
-      <c r="Y44" s="282"/>
-      <c r="Z44" s="282"/>
-      <c r="AA44" s="282"/>
-      <c r="AB44" s="282"/>
-      <c r="AC44" s="282"/>
-      <c r="AD44" s="282"/>
-      <c r="AE44" s="282"/>
-      <c r="AF44" s="282"/>
-      <c r="AG44" s="282"/>
-      <c r="AH44" s="282"/>
-      <c r="AI44" s="282"/>
-      <c r="AJ44" s="282"/>
+      <c r="A44" s="278"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="278"/>
+      <c r="D44" s="278"/>
+      <c r="E44" s="278"/>
+      <c r="F44" s="278"/>
+      <c r="G44" s="278"/>
+      <c r="H44" s="278"/>
+      <c r="I44" s="278"/>
+      <c r="J44" s="278"/>
+      <c r="K44" s="278"/>
+      <c r="L44" s="278"/>
+      <c r="M44" s="278"/>
+      <c r="N44" s="278"/>
+      <c r="O44" s="278"/>
+      <c r="P44" s="278"/>
+      <c r="Q44" s="278"/>
+      <c r="R44" s="278"/>
+      <c r="S44" s="278"/>
+      <c r="T44" s="278"/>
+      <c r="U44" s="278"/>
+      <c r="V44" s="278"/>
+      <c r="W44" s="278"/>
+      <c r="X44" s="278"/>
+      <c r="Y44" s="278"/>
+      <c r="Z44" s="278"/>
+      <c r="AA44" s="278"/>
+      <c r="AB44" s="278"/>
+      <c r="AC44" s="278"/>
+      <c r="AD44" s="278"/>
+      <c r="AE44" s="278"/>
+      <c r="AF44" s="278"/>
+      <c r="AG44" s="278"/>
+      <c r="AH44" s="278"/>
+      <c r="AI44" s="278"/>
+      <c r="AJ44" s="278"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A45" s="282"/>
-      <c r="B45" s="282"/>
-      <c r="C45" s="282"/>
-      <c r="D45" s="282"/>
-      <c r="E45" s="282"/>
-      <c r="F45" s="282"/>
-      <c r="G45" s="282"/>
-      <c r="H45" s="282"/>
-      <c r="I45" s="282"/>
-      <c r="J45" s="282"/>
-      <c r="K45" s="282"/>
-      <c r="L45" s="282"/>
-      <c r="M45" s="282"/>
-      <c r="N45" s="282"/>
-      <c r="O45" s="282"/>
-      <c r="P45" s="282"/>
-      <c r="Q45" s="282"/>
-      <c r="R45" s="282"/>
-      <c r="S45" s="282"/>
-      <c r="T45" s="282"/>
-      <c r="U45" s="282"/>
-      <c r="V45" s="282"/>
-      <c r="W45" s="282"/>
-      <c r="X45" s="282"/>
-      <c r="Y45" s="282"/>
-      <c r="Z45" s="282"/>
-      <c r="AA45" s="282"/>
-      <c r="AB45" s="282"/>
-      <c r="AC45" s="282"/>
-      <c r="AD45" s="282"/>
-      <c r="AE45" s="282"/>
-      <c r="AF45" s="282"/>
-      <c r="AG45" s="282"/>
-      <c r="AH45" s="282"/>
-      <c r="AI45" s="282"/>
-      <c r="AJ45" s="282"/>
+      <c r="A45" s="278"/>
+      <c r="B45" s="278"/>
+      <c r="C45" s="278"/>
+      <c r="D45" s="278"/>
+      <c r="E45" s="278"/>
+      <c r="F45" s="278"/>
+      <c r="G45" s="278"/>
+      <c r="H45" s="278"/>
+      <c r="I45" s="278"/>
+      <c r="J45" s="278"/>
+      <c r="K45" s="278"/>
+      <c r="L45" s="278"/>
+      <c r="M45" s="278"/>
+      <c r="N45" s="278"/>
+      <c r="O45" s="278"/>
+      <c r="P45" s="278"/>
+      <c r="Q45" s="278"/>
+      <c r="R45" s="278"/>
+      <c r="S45" s="278"/>
+      <c r="T45" s="278"/>
+      <c r="U45" s="278"/>
+      <c r="V45" s="278"/>
+      <c r="W45" s="278"/>
+      <c r="X45" s="278"/>
+      <c r="Y45" s="278"/>
+      <c r="Z45" s="278"/>
+      <c r="AA45" s="278"/>
+      <c r="AB45" s="278"/>
+      <c r="AC45" s="278"/>
+      <c r="AD45" s="278"/>
+      <c r="AE45" s="278"/>
+      <c r="AF45" s="278"/>
+      <c r="AG45" s="278"/>
+      <c r="AH45" s="278"/>
+      <c r="AI45" s="278"/>
+      <c r="AJ45" s="278"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A46" s="282"/>
-      <c r="B46" s="282"/>
-      <c r="C46" s="282"/>
-      <c r="D46" s="282"/>
-      <c r="E46" s="282"/>
-      <c r="F46" s="282"/>
-      <c r="G46" s="282"/>
-      <c r="H46" s="282"/>
-      <c r="I46" s="282"/>
-      <c r="J46" s="282"/>
-      <c r="K46" s="282"/>
-      <c r="L46" s="282"/>
-      <c r="M46" s="282"/>
-      <c r="N46" s="282"/>
-      <c r="O46" s="282"/>
-      <c r="P46" s="282"/>
-      <c r="Q46" s="282"/>
-      <c r="R46" s="282"/>
-      <c r="S46" s="282"/>
-      <c r="T46" s="282"/>
-      <c r="U46" s="282"/>
-      <c r="V46" s="282"/>
-      <c r="W46" s="282"/>
-      <c r="X46" s="282"/>
-      <c r="Y46" s="282"/>
-      <c r="Z46" s="282"/>
-      <c r="AA46" s="282"/>
-      <c r="AB46" s="282"/>
-      <c r="AC46" s="282"/>
-      <c r="AD46" s="282"/>
-      <c r="AE46" s="282"/>
-      <c r="AF46" s="282"/>
-      <c r="AG46" s="282"/>
-      <c r="AH46" s="282"/>
-      <c r="AI46" s="282"/>
-      <c r="AJ46" s="282"/>
+      <c r="A46" s="278"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="278"/>
+      <c r="D46" s="278"/>
+      <c r="E46" s="278"/>
+      <c r="F46" s="278"/>
+      <c r="G46" s="278"/>
+      <c r="H46" s="278"/>
+      <c r="I46" s="278"/>
+      <c r="J46" s="278"/>
+      <c r="K46" s="278"/>
+      <c r="L46" s="278"/>
+      <c r="M46" s="278"/>
+      <c r="N46" s="278"/>
+      <c r="O46" s="278"/>
+      <c r="P46" s="278"/>
+      <c r="Q46" s="278"/>
+      <c r="R46" s="278"/>
+      <c r="S46" s="278"/>
+      <c r="T46" s="278"/>
+      <c r="U46" s="278"/>
+      <c r="V46" s="278"/>
+      <c r="W46" s="278"/>
+      <c r="X46" s="278"/>
+      <c r="Y46" s="278"/>
+      <c r="Z46" s="278"/>
+      <c r="AA46" s="278"/>
+      <c r="AB46" s="278"/>
+      <c r="AC46" s="278"/>
+      <c r="AD46" s="278"/>
+      <c r="AE46" s="278"/>
+      <c r="AF46" s="278"/>
+      <c r="AG46" s="278"/>
+      <c r="AH46" s="278"/>
+      <c r="AI46" s="278"/>
+      <c r="AJ46" s="278"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A47" s="282"/>
-      <c r="B47" s="282"/>
-      <c r="C47" s="282"/>
-      <c r="D47" s="282"/>
-      <c r="E47" s="282"/>
-      <c r="F47" s="282"/>
-      <c r="G47" s="282"/>
-      <c r="H47" s="282"/>
-      <c r="I47" s="282"/>
-      <c r="J47" s="282"/>
-      <c r="K47" s="282"/>
-      <c r="L47" s="282"/>
-      <c r="M47" s="282"/>
-      <c r="N47" s="282"/>
-      <c r="O47" s="282"/>
-      <c r="P47" s="282"/>
-      <c r="Q47" s="282"/>
-      <c r="R47" s="282"/>
-      <c r="S47" s="282"/>
-      <c r="T47" s="282"/>
-      <c r="U47" s="282"/>
-      <c r="V47" s="282"/>
-      <c r="W47" s="282"/>
-      <c r="X47" s="282"/>
-      <c r="Y47" s="282"/>
-      <c r="Z47" s="282"/>
-      <c r="AA47" s="282"/>
-      <c r="AB47" s="282"/>
-      <c r="AC47" s="282"/>
-      <c r="AD47" s="282"/>
-      <c r="AE47" s="282"/>
-      <c r="AF47" s="282"/>
-      <c r="AG47" s="282"/>
-      <c r="AH47" s="282"/>
-      <c r="AI47" s="282"/>
-      <c r="AJ47" s="282"/>
+      <c r="A47" s="278"/>
+      <c r="B47" s="278"/>
+      <c r="C47" s="278"/>
+      <c r="D47" s="278"/>
+      <c r="E47" s="278"/>
+      <c r="F47" s="278"/>
+      <c r="G47" s="278"/>
+      <c r="H47" s="278"/>
+      <c r="I47" s="278"/>
+      <c r="J47" s="278"/>
+      <c r="K47" s="278"/>
+      <c r="L47" s="278"/>
+      <c r="M47" s="278"/>
+      <c r="N47" s="278"/>
+      <c r="O47" s="278"/>
+      <c r="P47" s="278"/>
+      <c r="Q47" s="278"/>
+      <c r="R47" s="278"/>
+      <c r="S47" s="278"/>
+      <c r="T47" s="278"/>
+      <c r="U47" s="278"/>
+      <c r="V47" s="278"/>
+      <c r="W47" s="278"/>
+      <c r="X47" s="278"/>
+      <c r="Y47" s="278"/>
+      <c r="Z47" s="278"/>
+      <c r="AA47" s="278"/>
+      <c r="AB47" s="278"/>
+      <c r="AC47" s="278"/>
+      <c r="AD47" s="278"/>
+      <c r="AE47" s="278"/>
+      <c r="AF47" s="278"/>
+      <c r="AG47" s="278"/>
+      <c r="AH47" s="278"/>
+      <c r="AI47" s="278"/>
+      <c r="AJ47" s="278"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A48" s="282"/>
-      <c r="B48" s="282"/>
-      <c r="C48" s="282"/>
-      <c r="D48" s="282"/>
-      <c r="E48" s="282"/>
-      <c r="F48" s="282"/>
-      <c r="G48" s="282"/>
-      <c r="H48" s="282"/>
-      <c r="I48" s="282"/>
-      <c r="J48" s="282"/>
-      <c r="K48" s="282"/>
-      <c r="L48" s="282"/>
-      <c r="M48" s="282"/>
-      <c r="N48" s="282"/>
-      <c r="O48" s="282"/>
-      <c r="P48" s="282"/>
-      <c r="Q48" s="282"/>
-      <c r="R48" s="282"/>
-      <c r="S48" s="282"/>
-      <c r="T48" s="282"/>
-      <c r="U48" s="282"/>
-      <c r="V48" s="282"/>
-      <c r="W48" s="282"/>
-      <c r="X48" s="282"/>
-      <c r="Y48" s="282"/>
-      <c r="Z48" s="282"/>
-      <c r="AA48" s="282"/>
-      <c r="AB48" s="282"/>
-      <c r="AC48" s="282"/>
-      <c r="AD48" s="282"/>
-      <c r="AE48" s="282"/>
-      <c r="AF48" s="282"/>
-      <c r="AG48" s="282"/>
-      <c r="AH48" s="282"/>
-      <c r="AI48" s="282"/>
-      <c r="AJ48" s="282"/>
+      <c r="A48" s="278"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="278"/>
+      <c r="D48" s="278"/>
+      <c r="E48" s="278"/>
+      <c r="F48" s="278"/>
+      <c r="G48" s="278"/>
+      <c r="H48" s="278"/>
+      <c r="I48" s="278"/>
+      <c r="J48" s="278"/>
+      <c r="K48" s="278"/>
+      <c r="L48" s="278"/>
+      <c r="M48" s="278"/>
+      <c r="N48" s="278"/>
+      <c r="O48" s="278"/>
+      <c r="P48" s="278"/>
+      <c r="Q48" s="278"/>
+      <c r="R48" s="278"/>
+      <c r="S48" s="278"/>
+      <c r="T48" s="278"/>
+      <c r="U48" s="278"/>
+      <c r="V48" s="278"/>
+      <c r="W48" s="278"/>
+      <c r="X48" s="278"/>
+      <c r="Y48" s="278"/>
+      <c r="Z48" s="278"/>
+      <c r="AA48" s="278"/>
+      <c r="AB48" s="278"/>
+      <c r="AC48" s="278"/>
+      <c r="AD48" s="278"/>
+      <c r="AE48" s="278"/>
+      <c r="AF48" s="278"/>
+      <c r="AG48" s="278"/>
+      <c r="AH48" s="278"/>
+      <c r="AI48" s="278"/>
+      <c r="AJ48" s="278"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A49" s="282"/>
-      <c r="B49" s="282"/>
-      <c r="C49" s="282"/>
-      <c r="D49" s="282"/>
-      <c r="E49" s="282"/>
-      <c r="F49" s="282"/>
-      <c r="G49" s="282"/>
-      <c r="H49" s="282"/>
-      <c r="I49" s="282"/>
-      <c r="J49" s="282"/>
-      <c r="K49" s="282"/>
-      <c r="L49" s="282"/>
-      <c r="M49" s="282"/>
-      <c r="N49" s="282"/>
-      <c r="O49" s="282"/>
-      <c r="P49" s="282"/>
-      <c r="Q49" s="282"/>
-      <c r="R49" s="282"/>
-      <c r="S49" s="282"/>
-      <c r="T49" s="282"/>
-      <c r="U49" s="282"/>
-      <c r="V49" s="282"/>
-      <c r="W49" s="282"/>
-      <c r="X49" s="282"/>
-      <c r="Y49" s="282"/>
-      <c r="Z49" s="282"/>
-      <c r="AA49" s="282"/>
-      <c r="AB49" s="282"/>
-      <c r="AC49" s="282"/>
-      <c r="AD49" s="282"/>
-      <c r="AE49" s="282"/>
-      <c r="AF49" s="282"/>
-      <c r="AG49" s="282"/>
-      <c r="AH49" s="282"/>
-      <c r="AI49" s="282"/>
-      <c r="AJ49" s="282"/>
+      <c r="A49" s="278"/>
+      <c r="B49" s="278"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="278"/>
+      <c r="E49" s="278"/>
+      <c r="F49" s="278"/>
+      <c r="G49" s="278"/>
+      <c r="H49" s="278"/>
+      <c r="I49" s="278"/>
+      <c r="J49" s="278"/>
+      <c r="K49" s="278"/>
+      <c r="L49" s="278"/>
+      <c r="M49" s="278"/>
+      <c r="N49" s="278"/>
+      <c r="O49" s="278"/>
+      <c r="P49" s="278"/>
+      <c r="Q49" s="278"/>
+      <c r="R49" s="278"/>
+      <c r="S49" s="278"/>
+      <c r="T49" s="278"/>
+      <c r="U49" s="278"/>
+      <c r="V49" s="278"/>
+      <c r="W49" s="278"/>
+      <c r="X49" s="278"/>
+      <c r="Y49" s="278"/>
+      <c r="Z49" s="278"/>
+      <c r="AA49" s="278"/>
+      <c r="AB49" s="278"/>
+      <c r="AC49" s="278"/>
+      <c r="AD49" s="278"/>
+      <c r="AE49" s="278"/>
+      <c r="AF49" s="278"/>
+      <c r="AG49" s="278"/>
+      <c r="AH49" s="278"/>
+      <c r="AI49" s="278"/>
+      <c r="AJ49" s="278"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A50" s="282"/>
-      <c r="B50" s="282"/>
-      <c r="C50" s="282"/>
-      <c r="D50" s="282"/>
-      <c r="E50" s="282"/>
-      <c r="F50" s="282"/>
-      <c r="G50" s="282"/>
-      <c r="H50" s="282"/>
-      <c r="I50" s="282"/>
-      <c r="J50" s="282"/>
-      <c r="K50" s="282"/>
-      <c r="L50" s="282"/>
-      <c r="M50" s="282"/>
-      <c r="N50" s="282"/>
-      <c r="O50" s="282"/>
-      <c r="P50" s="282"/>
-      <c r="Q50" s="282"/>
-      <c r="R50" s="282"/>
-      <c r="S50" s="282"/>
-      <c r="T50" s="282"/>
-      <c r="U50" s="282"/>
-      <c r="V50" s="282"/>
-      <c r="W50" s="282"/>
-      <c r="X50" s="282"/>
-      <c r="Y50" s="282"/>
-      <c r="Z50" s="282"/>
-      <c r="AA50" s="282"/>
-      <c r="AB50" s="282"/>
-      <c r="AC50" s="282"/>
-      <c r="AD50" s="282"/>
-      <c r="AE50" s="282"/>
-      <c r="AF50" s="282"/>
-      <c r="AG50" s="282"/>
-      <c r="AH50" s="282"/>
-      <c r="AI50" s="282"/>
-      <c r="AJ50" s="282"/>
+      <c r="A50" s="278"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="278"/>
+      <c r="D50" s="278"/>
+      <c r="E50" s="278"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="278"/>
+      <c r="H50" s="278"/>
+      <c r="I50" s="278"/>
+      <c r="J50" s="278"/>
+      <c r="K50" s="278"/>
+      <c r="L50" s="278"/>
+      <c r="M50" s="278"/>
+      <c r="N50" s="278"/>
+      <c r="O50" s="278"/>
+      <c r="P50" s="278"/>
+      <c r="Q50" s="278"/>
+      <c r="R50" s="278"/>
+      <c r="S50" s="278"/>
+      <c r="T50" s="278"/>
+      <c r="U50" s="278"/>
+      <c r="V50" s="278"/>
+      <c r="W50" s="278"/>
+      <c r="X50" s="278"/>
+      <c r="Y50" s="278"/>
+      <c r="Z50" s="278"/>
+      <c r="AA50" s="278"/>
+      <c r="AB50" s="278"/>
+      <c r="AC50" s="278"/>
+      <c r="AD50" s="278"/>
+      <c r="AE50" s="278"/>
+      <c r="AF50" s="278"/>
+      <c r="AG50" s="278"/>
+      <c r="AH50" s="278"/>
+      <c r="AI50" s="278"/>
+      <c r="AJ50" s="278"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A51" s="282"/>
-      <c r="B51" s="282"/>
-      <c r="C51" s="282"/>
-      <c r="D51" s="282"/>
-      <c r="E51" s="282"/>
-      <c r="F51" s="282"/>
-      <c r="G51" s="282"/>
-      <c r="H51" s="282"/>
-      <c r="I51" s="282"/>
-      <c r="J51" s="282"/>
-      <c r="K51" s="282"/>
-      <c r="L51" s="282"/>
-      <c r="M51" s="282"/>
-      <c r="N51" s="282"/>
-      <c r="O51" s="282"/>
-      <c r="P51" s="282"/>
-      <c r="Q51" s="282"/>
-      <c r="R51" s="282"/>
-      <c r="S51" s="282"/>
-      <c r="T51" s="282"/>
-      <c r="U51" s="282"/>
-      <c r="V51" s="282"/>
-      <c r="W51" s="282"/>
-      <c r="X51" s="282"/>
-      <c r="Y51" s="282"/>
-      <c r="Z51" s="282"/>
-      <c r="AA51" s="282"/>
-      <c r="AB51" s="282"/>
-      <c r="AC51" s="282"/>
-      <c r="AD51" s="282"/>
-      <c r="AE51" s="282"/>
-      <c r="AF51" s="282"/>
-      <c r="AG51" s="282"/>
-      <c r="AH51" s="282"/>
-      <c r="AI51" s="282"/>
-      <c r="AJ51" s="282"/>
+      <c r="A51" s="278"/>
+      <c r="B51" s="278"/>
+      <c r="C51" s="278"/>
+      <c r="D51" s="278"/>
+      <c r="E51" s="278"/>
+      <c r="F51" s="278"/>
+      <c r="G51" s="278"/>
+      <c r="H51" s="278"/>
+      <c r="I51" s="278"/>
+      <c r="J51" s="278"/>
+      <c r="K51" s="278"/>
+      <c r="L51" s="278"/>
+      <c r="M51" s="278"/>
+      <c r="N51" s="278"/>
+      <c r="O51" s="278"/>
+      <c r="P51" s="278"/>
+      <c r="Q51" s="278"/>
+      <c r="R51" s="278"/>
+      <c r="S51" s="278"/>
+      <c r="T51" s="278"/>
+      <c r="U51" s="278"/>
+      <c r="V51" s="278"/>
+      <c r="W51" s="278"/>
+      <c r="X51" s="278"/>
+      <c r="Y51" s="278"/>
+      <c r="Z51" s="278"/>
+      <c r="AA51" s="278"/>
+      <c r="AB51" s="278"/>
+      <c r="AC51" s="278"/>
+      <c r="AD51" s="278"/>
+      <c r="AE51" s="278"/>
+      <c r="AF51" s="278"/>
+      <c r="AG51" s="278"/>
+      <c r="AH51" s="278"/>
+      <c r="AI51" s="278"/>
+      <c r="AJ51" s="278"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A52" s="282"/>
-      <c r="B52" s="282"/>
-      <c r="C52" s="282"/>
-      <c r="D52" s="282"/>
-      <c r="E52" s="282"/>
-      <c r="F52" s="282"/>
-      <c r="G52" s="282"/>
-      <c r="H52" s="282"/>
-      <c r="I52" s="282"/>
-      <c r="J52" s="282"/>
-      <c r="K52" s="282"/>
-      <c r="L52" s="282"/>
-      <c r="M52" s="282"/>
-      <c r="N52" s="282"/>
-      <c r="O52" s="282"/>
-      <c r="P52" s="282"/>
-      <c r="Q52" s="282"/>
-      <c r="R52" s="282"/>
-      <c r="S52" s="282"/>
-      <c r="T52" s="282"/>
-      <c r="U52" s="282"/>
-      <c r="V52" s="282"/>
-      <c r="W52" s="282"/>
-      <c r="X52" s="282"/>
-      <c r="Y52" s="282"/>
-      <c r="Z52" s="282"/>
-      <c r="AA52" s="282"/>
-      <c r="AB52" s="282"/>
-      <c r="AC52" s="282"/>
-      <c r="AD52" s="282"/>
-      <c r="AE52" s="282"/>
-      <c r="AF52" s="282"/>
-      <c r="AG52" s="282"/>
-      <c r="AH52" s="282"/>
-      <c r="AI52" s="282"/>
-      <c r="AJ52" s="282"/>
+      <c r="A52" s="278"/>
+      <c r="B52" s="278"/>
+      <c r="C52" s="278"/>
+      <c r="D52" s="278"/>
+      <c r="E52" s="278"/>
+      <c r="F52" s="278"/>
+      <c r="G52" s="278"/>
+      <c r="H52" s="278"/>
+      <c r="I52" s="278"/>
+      <c r="J52" s="278"/>
+      <c r="K52" s="278"/>
+      <c r="L52" s="278"/>
+      <c r="M52" s="278"/>
+      <c r="N52" s="278"/>
+      <c r="O52" s="278"/>
+      <c r="P52" s="278"/>
+      <c r="Q52" s="278"/>
+      <c r="R52" s="278"/>
+      <c r="S52" s="278"/>
+      <c r="T52" s="278"/>
+      <c r="U52" s="278"/>
+      <c r="V52" s="278"/>
+      <c r="W52" s="278"/>
+      <c r="X52" s="278"/>
+      <c r="Y52" s="278"/>
+      <c r="Z52" s="278"/>
+      <c r="AA52" s="278"/>
+      <c r="AB52" s="278"/>
+      <c r="AC52" s="278"/>
+      <c r="AD52" s="278"/>
+      <c r="AE52" s="278"/>
+      <c r="AF52" s="278"/>
+      <c r="AG52" s="278"/>
+      <c r="AH52" s="278"/>
+      <c r="AI52" s="278"/>
+      <c r="AJ52" s="278"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A53" s="282"/>
-      <c r="B53" s="282"/>
-      <c r="C53" s="282"/>
-      <c r="D53" s="282"/>
-      <c r="E53" s="282"/>
-      <c r="F53" s="282"/>
-      <c r="G53" s="282"/>
-      <c r="H53" s="282"/>
-      <c r="I53" s="282"/>
-      <c r="J53" s="282"/>
-      <c r="K53" s="282"/>
-      <c r="L53" s="282"/>
-      <c r="M53" s="282"/>
-      <c r="N53" s="282"/>
-      <c r="O53" s="282"/>
-      <c r="P53" s="282"/>
-      <c r="Q53" s="282"/>
-      <c r="R53" s="282"/>
-      <c r="S53" s="282"/>
-      <c r="T53" s="282"/>
-      <c r="U53" s="282"/>
-      <c r="V53" s="282"/>
-      <c r="W53" s="282"/>
-      <c r="X53" s="282"/>
-      <c r="Y53" s="282"/>
-      <c r="Z53" s="282"/>
-      <c r="AA53" s="282"/>
-      <c r="AB53" s="282"/>
-      <c r="AC53" s="282"/>
-      <c r="AD53" s="282"/>
-      <c r="AE53" s="282"/>
-      <c r="AF53" s="282"/>
-      <c r="AG53" s="282"/>
-      <c r="AH53" s="282"/>
-      <c r="AI53" s="282"/>
-      <c r="AJ53" s="282"/>
+      <c r="A53" s="278"/>
+      <c r="B53" s="278"/>
+      <c r="C53" s="278"/>
+      <c r="D53" s="278"/>
+      <c r="E53" s="278"/>
+      <c r="F53" s="278"/>
+      <c r="G53" s="278"/>
+      <c r="H53" s="278"/>
+      <c r="I53" s="278"/>
+      <c r="J53" s="278"/>
+      <c r="K53" s="278"/>
+      <c r="L53" s="278"/>
+      <c r="M53" s="278"/>
+      <c r="N53" s="278"/>
+      <c r="O53" s="278"/>
+      <c r="P53" s="278"/>
+      <c r="Q53" s="278"/>
+      <c r="R53" s="278"/>
+      <c r="S53" s="278"/>
+      <c r="T53" s="278"/>
+      <c r="U53" s="278"/>
+      <c r="V53" s="278"/>
+      <c r="W53" s="278"/>
+      <c r="X53" s="278"/>
+      <c r="Y53" s="278"/>
+      <c r="Z53" s="278"/>
+      <c r="AA53" s="278"/>
+      <c r="AB53" s="278"/>
+      <c r="AC53" s="278"/>
+      <c r="AD53" s="278"/>
+      <c r="AE53" s="278"/>
+      <c r="AF53" s="278"/>
+      <c r="AG53" s="278"/>
+      <c r="AH53" s="278"/>
+      <c r="AI53" s="278"/>
+      <c r="AJ53" s="278"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A54" s="282"/>
-      <c r="B54" s="282"/>
-      <c r="C54" s="282"/>
-      <c r="D54" s="282"/>
-      <c r="E54" s="282"/>
-      <c r="F54" s="282"/>
-      <c r="G54" s="282"/>
-      <c r="H54" s="282"/>
-      <c r="I54" s="282"/>
-      <c r="J54" s="282"/>
-      <c r="K54" s="282"/>
-      <c r="L54" s="282"/>
-      <c r="M54" s="282"/>
-      <c r="N54" s="282"/>
-      <c r="O54" s="282"/>
-      <c r="P54" s="282"/>
-      <c r="Q54" s="282"/>
-      <c r="R54" s="282"/>
-      <c r="S54" s="282"/>
-      <c r="T54" s="282"/>
-      <c r="U54" s="282"/>
-      <c r="V54" s="282"/>
-      <c r="W54" s="282"/>
-      <c r="X54" s="282"/>
-      <c r="Y54" s="282"/>
-      <c r="Z54" s="282"/>
-      <c r="AA54" s="282"/>
-      <c r="AB54" s="282"/>
-      <c r="AC54" s="282"/>
-      <c r="AD54" s="282"/>
-      <c r="AE54" s="282"/>
-      <c r="AF54" s="282"/>
-      <c r="AG54" s="282"/>
-      <c r="AH54" s="282"/>
-      <c r="AI54" s="282"/>
-      <c r="AJ54" s="282"/>
+      <c r="A54" s="278"/>
+      <c r="B54" s="278"/>
+      <c r="C54" s="278"/>
+      <c r="D54" s="278"/>
+      <c r="E54" s="278"/>
+      <c r="F54" s="278"/>
+      <c r="G54" s="278"/>
+      <c r="H54" s="278"/>
+      <c r="I54" s="278"/>
+      <c r="J54" s="278"/>
+      <c r="K54" s="278"/>
+      <c r="L54" s="278"/>
+      <c r="M54" s="278"/>
+      <c r="N54" s="278"/>
+      <c r="O54" s="278"/>
+      <c r="P54" s="278"/>
+      <c r="Q54" s="278"/>
+      <c r="R54" s="278"/>
+      <c r="S54" s="278"/>
+      <c r="T54" s="278"/>
+      <c r="U54" s="278"/>
+      <c r="V54" s="278"/>
+      <c r="W54" s="278"/>
+      <c r="X54" s="278"/>
+      <c r="Y54" s="278"/>
+      <c r="Z54" s="278"/>
+      <c r="AA54" s="278"/>
+      <c r="AB54" s="278"/>
+      <c r="AC54" s="278"/>
+      <c r="AD54" s="278"/>
+      <c r="AE54" s="278"/>
+      <c r="AF54" s="278"/>
+      <c r="AG54" s="278"/>
+      <c r="AH54" s="278"/>
+      <c r="AI54" s="278"/>
+      <c r="AJ54" s="278"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A55" s="282"/>
-      <c r="B55" s="282"/>
-      <c r="C55" s="282"/>
-      <c r="D55" s="282"/>
-      <c r="E55" s="282"/>
-      <c r="F55" s="282"/>
-      <c r="G55" s="282"/>
-      <c r="H55" s="282"/>
-      <c r="I55" s="282"/>
-      <c r="J55" s="282"/>
-      <c r="K55" s="282"/>
-      <c r="L55" s="282"/>
-      <c r="M55" s="282"/>
-      <c r="N55" s="282"/>
-      <c r="O55" s="282"/>
-      <c r="P55" s="282"/>
-      <c r="Q55" s="282"/>
-      <c r="R55" s="282"/>
-      <c r="S55" s="282"/>
-      <c r="T55" s="282"/>
-      <c r="U55" s="282"/>
-      <c r="V55" s="282"/>
-      <c r="W55" s="282"/>
-      <c r="X55" s="282"/>
-      <c r="Y55" s="282"/>
-      <c r="Z55" s="282"/>
-      <c r="AA55" s="282"/>
-      <c r="AB55" s="282"/>
-      <c r="AC55" s="282"/>
-      <c r="AD55" s="282"/>
-      <c r="AE55" s="282"/>
-      <c r="AF55" s="282"/>
-      <c r="AG55" s="282"/>
-      <c r="AH55" s="282"/>
-      <c r="AI55" s="282"/>
-      <c r="AJ55" s="282"/>
+      <c r="A55" s="278"/>
+      <c r="B55" s="278"/>
+      <c r="C55" s="278"/>
+      <c r="D55" s="278"/>
+      <c r="E55" s="278"/>
+      <c r="F55" s="278"/>
+      <c r="G55" s="278"/>
+      <c r="H55" s="278"/>
+      <c r="I55" s="278"/>
+      <c r="J55" s="278"/>
+      <c r="K55" s="278"/>
+      <c r="L55" s="278"/>
+      <c r="M55" s="278"/>
+      <c r="N55" s="278"/>
+      <c r="O55" s="278"/>
+      <c r="P55" s="278"/>
+      <c r="Q55" s="278"/>
+      <c r="R55" s="278"/>
+      <c r="S55" s="278"/>
+      <c r="T55" s="278"/>
+      <c r="U55" s="278"/>
+      <c r="V55" s="278"/>
+      <c r="W55" s="278"/>
+      <c r="X55" s="278"/>
+      <c r="Y55" s="278"/>
+      <c r="Z55" s="278"/>
+      <c r="AA55" s="278"/>
+      <c r="AB55" s="278"/>
+      <c r="AC55" s="278"/>
+      <c r="AD55" s="278"/>
+      <c r="AE55" s="278"/>
+      <c r="AF55" s="278"/>
+      <c r="AG55" s="278"/>
+      <c r="AH55" s="278"/>
+      <c r="AI55" s="278"/>
+      <c r="AJ55" s="278"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A56" s="282"/>
-      <c r="B56" s="282"/>
-      <c r="C56" s="282"/>
-      <c r="D56" s="282"/>
-      <c r="E56" s="282"/>
-      <c r="F56" s="282"/>
-      <c r="G56" s="282"/>
-      <c r="H56" s="282"/>
-      <c r="I56" s="282"/>
-      <c r="J56" s="282"/>
-      <c r="K56" s="282"/>
-      <c r="L56" s="282"/>
-      <c r="M56" s="282"/>
-      <c r="N56" s="282"/>
-      <c r="O56" s="282"/>
-      <c r="P56" s="282"/>
-      <c r="Q56" s="282"/>
-      <c r="R56" s="282"/>
-      <c r="S56" s="282"/>
-      <c r="T56" s="282"/>
-      <c r="U56" s="282"/>
-      <c r="V56" s="282"/>
-      <c r="W56" s="282"/>
-      <c r="X56" s="282"/>
-      <c r="Y56" s="282"/>
-      <c r="Z56" s="282"/>
-      <c r="AA56" s="282"/>
-      <c r="AB56" s="282"/>
-      <c r="AC56" s="282"/>
-      <c r="AD56" s="282"/>
-      <c r="AE56" s="282"/>
-      <c r="AF56" s="282"/>
-      <c r="AG56" s="282"/>
-      <c r="AH56" s="282"/>
-      <c r="AI56" s="282"/>
-      <c r="AJ56" s="282"/>
+      <c r="A56" s="278"/>
+      <c r="B56" s="278"/>
+      <c r="C56" s="278"/>
+      <c r="D56" s="278"/>
+      <c r="E56" s="278"/>
+      <c r="F56" s="278"/>
+      <c r="G56" s="278"/>
+      <c r="H56" s="278"/>
+      <c r="I56" s="278"/>
+      <c r="J56" s="278"/>
+      <c r="K56" s="278"/>
+      <c r="L56" s="278"/>
+      <c r="M56" s="278"/>
+      <c r="N56" s="278"/>
+      <c r="O56" s="278"/>
+      <c r="P56" s="278"/>
+      <c r="Q56" s="278"/>
+      <c r="R56" s="278"/>
+      <c r="S56" s="278"/>
+      <c r="T56" s="278"/>
+      <c r="U56" s="278"/>
+      <c r="V56" s="278"/>
+      <c r="W56" s="278"/>
+      <c r="X56" s="278"/>
+      <c r="Y56" s="278"/>
+      <c r="Z56" s="278"/>
+      <c r="AA56" s="278"/>
+      <c r="AB56" s="278"/>
+      <c r="AC56" s="278"/>
+      <c r="AD56" s="278"/>
+      <c r="AE56" s="278"/>
+      <c r="AF56" s="278"/>
+      <c r="AG56" s="278"/>
+      <c r="AH56" s="278"/>
+      <c r="AI56" s="278"/>
+      <c r="AJ56" s="278"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fgM8ArAI4LCessrPf6/yDy56Jt8yGktSCb7Jw9g/ZXy22uPLDjvkYDfZoG+0rD7YMPCSaunOm3MsJLh+bm/4KA==" saltValue="fFcFeTLqS4YBrxCetCGCdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -21186,54 +21186,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="34" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="285" t="s">
         <v>1579</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
-      <c r="O1" s="281"/>
-      <c r="P1" s="281"/>
-      <c r="Q1" s="281"/>
-      <c r="R1" s="281"/>
-      <c r="S1" s="281"/>
-      <c r="T1" s="281"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="281"/>
-      <c r="W1" s="281"/>
-      <c r="X1" s="281"/>
-      <c r="Y1" s="281"/>
-      <c r="Z1" s="281"/>
-      <c r="AA1" s="281"/>
-      <c r="AB1" s="281"/>
-      <c r="AC1" s="281"/>
-      <c r="AD1" s="281"/>
-      <c r="AE1" s="281"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="281"/>
-      <c r="AH1" s="281"/>
-      <c r="AI1" s="281"/>
-      <c r="AJ1" s="281"/>
-      <c r="AK1" s="281"/>
-      <c r="AL1" s="281"/>
-      <c r="AM1" s="281"/>
-      <c r="AN1" s="281"/>
-      <c r="AO1" s="281"/>
-      <c r="AP1" s="281"/>
-      <c r="AQ1" s="281"/>
-      <c r="AR1" s="281"/>
-      <c r="AS1" s="281"/>
-      <c r="AT1" s="281"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="286"/>
+      <c r="S1" s="286"/>
+      <c r="T1" s="286"/>
+      <c r="U1" s="286"/>
+      <c r="V1" s="286"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="286"/>
+      <c r="Y1" s="286"/>
+      <c r="Z1" s="286"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="286"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="286"/>
+      <c r="AH1" s="286"/>
+      <c r="AI1" s="286"/>
+      <c r="AJ1" s="286"/>
+      <c r="AK1" s="286"/>
+      <c r="AL1" s="286"/>
+      <c r="AM1" s="286"/>
+      <c r="AN1" s="286"/>
+      <c r="AO1" s="286"/>
+      <c r="AP1" s="286"/>
+      <c r="AQ1" s="286"/>
+      <c r="AR1" s="286"/>
+      <c r="AS1" s="286"/>
+      <c r="AT1" s="286"/>
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="1:47" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -21305,10 +21305,10 @@
         <v>965</v>
       </c>
       <c r="K3" s="44"/>
-      <c r="L3" s="278" t="s">
+      <c r="L3" s="283" t="s">
         <v>1533</v>
       </c>
-      <c r="M3" s="279"/>
+      <c r="M3" s="284"/>
       <c r="N3" s="142" t="s">
         <v>697</v>
       </c>
@@ -22471,7 +22471,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="285"/>
+      <c r="D23" s="281"/>
       <c r="E23" s="112"/>
       <c r="F23" s="112"/>
       <c r="G23" s="112"/>
@@ -22987,53 +22987,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="34" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="285" t="s">
         <v>1579</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
-      <c r="O1" s="281"/>
-      <c r="P1" s="281"/>
-      <c r="Q1" s="281"/>
-      <c r="R1" s="281"/>
-      <c r="S1" s="281"/>
-      <c r="T1" s="281"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="281"/>
-      <c r="W1" s="281"/>
-      <c r="X1" s="281"/>
-      <c r="Y1" s="281"/>
-      <c r="Z1" s="281"/>
-      <c r="AA1" s="281"/>
-      <c r="AB1" s="281"/>
-      <c r="AC1" s="281"/>
-      <c r="AD1" s="281"/>
-      <c r="AE1" s="281"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="281"/>
-      <c r="AH1" s="281"/>
-      <c r="AI1" s="281"/>
-      <c r="AJ1" s="281"/>
-      <c r="AK1" s="281"/>
-      <c r="AL1" s="281"/>
-      <c r="AM1" s="281"/>
-      <c r="AN1" s="281"/>
-      <c r="AO1" s="281"/>
-      <c r="AP1" s="281"/>
-      <c r="AQ1" s="281"/>
-      <c r="AR1" s="281"/>
-      <c r="AS1" s="281"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="286"/>
+      <c r="S1" s="286"/>
+      <c r="T1" s="286"/>
+      <c r="U1" s="286"/>
+      <c r="V1" s="286"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="286"/>
+      <c r="Y1" s="286"/>
+      <c r="Z1" s="286"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="286"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="286"/>
+      <c r="AH1" s="286"/>
+      <c r="AI1" s="286"/>
+      <c r="AJ1" s="286"/>
+      <c r="AK1" s="286"/>
+      <c r="AL1" s="286"/>
+      <c r="AM1" s="286"/>
+      <c r="AN1" s="286"/>
+      <c r="AO1" s="286"/>
+      <c r="AP1" s="286"/>
+      <c r="AQ1" s="286"/>
+      <c r="AR1" s="286"/>
+      <c r="AS1" s="286"/>
       <c r="AT1" s="12"/>
     </row>
     <row r="2" spans="1:46" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -23103,10 +23103,10 @@
         <v>965</v>
       </c>
       <c r="J3" s="44"/>
-      <c r="K3" s="278" t="s">
+      <c r="K3" s="283" t="s">
         <v>1533</v>
       </c>
-      <c r="L3" s="279"/>
+      <c r="L3" s="284"/>
       <c r="M3" s="142" t="s">
         <v>697</v>
       </c>

--- a/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
+++ b/www/Configs/NSMP/Data Entry Template - NSMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/sea084_csiro_au/Documents/RossRCode/Git/Shiny/Apps/SoilDataEntry/www/Configs/NSMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{85FB1B30-9AB1-4C64-BF2C-F6282794E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5A6C5E-3C6D-4D5E-936E-7B91841B0E05}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{85FB1B30-9AB1-4C64-BF2C-F6282794E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36AEFAD2-3E0D-4444-85D0-36CDBBF27079}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="24290" windowHeight="14340" firstSheet="4" activeTab="4" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
+    <workbookView xWindow="5445" yWindow="-16920" windowWidth="25575" windowHeight="15255" firstSheet="4" activeTab="4" xr2:uid="{83C9EC8A-7EF8-4F9D-A138-3450D8759736}"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateOriginal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1986">
   <si>
     <t>Site ID</t>
   </si>
@@ -4313,18 +4313,9 @@
     <t>H#STRUCTURES#str_ped_size#2#1</t>
   </si>
   <si>
-    <t>It can ingest the data into a standalone copy of an SQLite database file in the NatSoil DB Schema or ingest the data directly into the CSIS SQL Server database environment</t>
-  </si>
-  <si>
     <t>The Process</t>
   </si>
   <si>
-    <t>Enter the data from your site sheet into the form provided</t>
-  </si>
-  <si>
-    <t>Copy the template tab to a new tab and rename the site in the tab</t>
-  </si>
-  <si>
     <t>Do this for every site you wish to ingest into the database</t>
   </si>
   <si>
@@ -4334,9 +4325,6 @@
     <t xml:space="preserve">When you have finished entering your data save the MS Excel file and drag the file onto this website </t>
   </si>
   <si>
-    <t>Your site data will be ingested into a NatSoil schema DB and displayed on the website</t>
-  </si>
-  <si>
     <t>NSMP</t>
   </si>
   <si>
@@ -5904,6 +5892,114 @@
   </si>
   <si>
     <t>Once there are no errors in the dataset you can click the "Import Site Data Into DB" button to upload the data to the NSMP Staging Database</t>
+  </si>
+  <si>
+    <t>Depth to Water (m)</t>
+  </si>
+  <si>
+    <t>Hor_Suffix</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>It can ingest the data from these data sheets into the CSIS SQL Server database environment used by the NSMP Project</t>
+  </si>
+  <si>
+    <t>Once you have loaded your sites into the Staging Database, you can review them in the various viewing tabs of this website to check you are happy with the data that has been uploaded.</t>
+  </si>
+  <si>
+    <t>If you are happy with a site/s you can then publish these sites to the NSMP Site database via the "Publish Sites" tab.</t>
+  </si>
+  <si>
+    <t>Once a site is published it can no longer be edited via this tool.</t>
+  </si>
+  <si>
+    <t>All of the sites you need to enter have blank worksheets in the spreadsheet</t>
+  </si>
+  <si>
+    <t>Enter the data from your site sheets into the relevant worksheet</t>
   </si>
 </sst>
 </file>
@@ -6021,7 +6117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6130,8 +6226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="100">
     <border>
       <left/>
       <right/>
@@ -7355,13 +7457,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7955,6 +8068,11 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9639,7 +9757,7 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="24" thickBot="1" x14ac:dyDescent="0.6">
@@ -9755,7 +9873,7 @@
       <c r="AM3" s="162"/>
       <c r="AN3" s="165"/>
       <c r="AO3" s="166" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="AP3" s="168"/>
       <c r="AQ3" s="64"/>
@@ -9774,46 +9892,46 @@
       <c r="E4" s="1"/>
       <c r="F4" s="133"/>
       <c r="G4" s="143" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="H4" s="143" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="I4" s="143" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="J4" s="143" t="s">
         <v>698</v>
       </c>
       <c r="K4" s="132" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="L4" s="70" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="M4" s="144" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="N4" s="143" t="s">
         <v>697</v>
       </c>
       <c r="O4" s="135" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="P4" s="143" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="135" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="R4" s="143" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="S4" s="132" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="T4" s="144" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="U4" s="143" t="s">
         <v>731</v>
@@ -9825,16 +9943,16 @@
         <v>732</v>
       </c>
       <c r="X4" s="70" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="Y4" s="70" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="Z4" s="70" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="AA4" s="70" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="AB4" s="144" t="s">
         <v>839</v>
@@ -9855,46 +9973,46 @@
         <v>852</v>
       </c>
       <c r="AH4" s="158" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AI4" s="158" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AJ4" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AK4" s="163" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AL4" s="163" t="s">
         <v>1936</v>
       </c>
-      <c r="AI4" s="158" t="s">
+      <c r="AM4" s="154" t="s">
         <v>1937</v>
       </c>
-      <c r="AJ4" s="159" t="s">
+      <c r="AN4" s="154" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AO4" s="169" t="s">
         <v>1939</v>
       </c>
-      <c r="AK4" s="163" t="s">
-        <v>1938</v>
-      </c>
-      <c r="AL4" s="163" t="s">
+      <c r="AP4" s="170" t="s">
         <v>1940</v>
       </c>
-      <c r="AM4" s="154" t="s">
-        <v>1941</v>
-      </c>
-      <c r="AN4" s="154" t="s">
-        <v>1942</v>
-      </c>
-      <c r="AO4" s="169" t="s">
-        <v>1943</v>
-      </c>
-      <c r="AP4" s="170" t="s">
-        <v>1944</v>
-      </c>
       <c r="AQ4" s="72" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="AR4" s="72" t="s">
         <v>19</v>
       </c>
       <c r="AS4" s="72" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="AT4" s="182" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="AU4" s="183" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9902,49 +10020,49 @@
         <v>1025</v>
       </c>
       <c r="B5" s="128" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="2" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="O5" s="32" t="s">
         <v>1053</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="S5" s="32" t="s">
         <v>1085</v>
@@ -9953,7 +10071,7 @@
         <v>1101</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="V5" s="32" t="s">
         <v>1125</v>
@@ -9977,7 +10095,7 @@
         <v>1208</v>
       </c>
       <c r="AC5" s="28" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="AD5" s="32" t="s">
         <v>1229</v>
@@ -9989,7 +10107,7 @@
         <v>1271</v>
       </c>
       <c r="AG5" s="32" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="AH5" s="32" t="s">
         <v>1295</v>
@@ -10013,25 +10131,25 @@
         <v>1391</v>
       </c>
       <c r="AO5" s="32" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="AP5" s="32" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="AQ5" s="32" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="AR5" s="32" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AS5" s="32" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AT5" s="32" t="s">
         <v>1834</v>
       </c>
-      <c r="AS5" s="32" t="s">
-        <v>1907</v>
-      </c>
-      <c r="AT5" s="32" t="s">
-        <v>1838</v>
-      </c>
       <c r="AU5" s="32" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10039,14 +10157,14 @@
         <v>966</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="2" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="32"/>
@@ -10063,10 +10181,10 @@
         <v>1037</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>1045</v>
@@ -10078,7 +10196,7 @@
         <v>1076</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="R6" s="32" t="s">
         <v>1077</v>
@@ -10150,25 +10268,25 @@
         <v>1392</v>
       </c>
       <c r="AO6" s="32" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="AP6" s="32" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="AQ6" s="32" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="AR6" s="32" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="AS6" s="32" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="AT6" s="32" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10176,49 +10294,49 @@
         <v>967</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="2" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="O7" s="32" t="s">
         <v>1055</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="S7" s="32" t="s">
         <v>1087</v>
@@ -10227,7 +10345,7 @@
         <v>1103</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="V7" s="32" t="s">
         <v>1127</v>
@@ -10251,7 +10369,7 @@
         <v>1210</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="AD7" s="32" t="s">
         <v>1231</v>
@@ -10263,7 +10381,7 @@
         <v>1273</v>
       </c>
       <c r="AG7" s="32" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="AH7" s="32" t="s">
         <v>1297</v>
@@ -10287,25 +10405,25 @@
         <v>1393</v>
       </c>
       <c r="AO7" s="32" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="AP7" s="32" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="AQ7" s="32" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="AR7" s="32" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="AS7" s="32" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="AT7" s="32" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="AU7" s="32" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10313,14 +10431,14 @@
         <v>1028</v>
       </c>
       <c r="B8" s="128" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C8" s="109"/>
       <c r="D8" s="2" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="32"/>
@@ -10337,10 +10455,10 @@
         <v>1038</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="N8" s="32" t="s">
         <v>1046</v>
@@ -10352,7 +10470,7 @@
         <v>1069</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="R8" s="32" t="s">
         <v>1078</v>
@@ -10424,25 +10542,25 @@
         <v>1394</v>
       </c>
       <c r="AO8" s="32" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="AP8" s="32" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="AR8" s="32" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="AS8" s="32" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10450,7 +10568,7 @@
         <v>968</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C9" s="109"/>
       <c r="D9" s="110"/>
@@ -10458,37 +10576,37 @@
       <c r="F9" s="1"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="O9" s="32" t="s">
         <v>1057</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="S9" s="32" t="s">
         <v>1089</v>
@@ -10497,7 +10615,7 @@
         <v>1105</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="V9" s="32" t="s">
         <v>1129</v>
@@ -10521,7 +10639,7 @@
         <v>1212</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="AD9" s="32" t="s">
         <v>1233</v>
@@ -10533,7 +10651,7 @@
         <v>1275</v>
       </c>
       <c r="AG9" s="32" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="AH9" s="32" t="s">
         <v>1299</v>
@@ -10557,25 +10675,25 @@
         <v>1395</v>
       </c>
       <c r="AO9" s="32" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="AP9" s="32" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="AQ9" s="32" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="AR9" s="32" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="AS9" s="32" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="AT9" s="32" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="AU9" s="32" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10583,14 +10701,14 @@
         <v>969</v>
       </c>
       <c r="B10" s="128" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="130" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="32"/>
@@ -10607,10 +10725,10 @@
         <v>1039</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>1047</v>
@@ -10622,7 +10740,7 @@
         <v>1070</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="R10" s="32" t="s">
         <v>1079</v>
@@ -10694,25 +10812,25 @@
         <v>1396</v>
       </c>
       <c r="AO10" s="32" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="AP10" s="32" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="AQ10" s="32" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="AR10" s="32" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="AS10" s="32" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="AT10" s="32" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10720,49 +10838,49 @@
         <v>970</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="2" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>1059</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="S11" s="32" t="s">
         <v>1091</v>
@@ -10771,7 +10889,7 @@
         <v>1107</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="V11" s="32" t="s">
         <v>1131</v>
@@ -10795,7 +10913,7 @@
         <v>1214</v>
       </c>
       <c r="AC11" s="32" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="AD11" s="32" t="s">
         <v>1235</v>
@@ -10807,7 +10925,7 @@
         <v>1277</v>
       </c>
       <c r="AG11" s="32" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="AH11" s="32" t="s">
         <v>1301</v>
@@ -10831,25 +10949,25 @@
         <v>1397</v>
       </c>
       <c r="AO11" s="32" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="AP11" s="32" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="AQ11" s="32" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="AR11" s="32" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="AS11" s="32" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="AT11" s="32" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="AU11" s="32" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10857,14 +10975,14 @@
         <v>971</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C12" s="109"/>
       <c r="D12" s="2" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="32"/>
@@ -10881,10 +10999,10 @@
         <v>1040</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="N12" s="32" t="s">
         <v>1048</v>
@@ -10896,7 +11014,7 @@
         <v>1071</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="R12" s="32" t="s">
         <v>1080</v>
@@ -10968,25 +11086,25 @@
         <v>1398</v>
       </c>
       <c r="AO12" s="32" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="AP12" s="32" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="AQ12" s="32" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="AR12" s="32" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="AS12" s="32" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="AT12" s="32" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="AU12" s="32" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10994,49 +11112,49 @@
         <v>972</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="2" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>1061</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="S13" s="32" t="s">
         <v>1093</v>
@@ -11045,7 +11163,7 @@
         <v>1109</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="V13" s="32" t="s">
         <v>1133</v>
@@ -11069,7 +11187,7 @@
         <v>1216</v>
       </c>
       <c r="AC13" s="32" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="AD13" s="32" t="s">
         <v>1237</v>
@@ -11081,7 +11199,7 @@
         <v>1279</v>
       </c>
       <c r="AG13" s="32" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="AH13" s="32" t="s">
         <v>1303</v>
@@ -11105,40 +11223,40 @@
         <v>1399</v>
       </c>
       <c r="AO13" s="32" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="AP13" s="32" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="AQ13" s="32" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="AR13" s="32" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="AS13" s="32" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="AT13" s="32" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="AU13" s="32" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B14" s="128" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="2" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="32"/>
@@ -11155,10 +11273,10 @@
         <v>1041</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>1049</v>
@@ -11170,7 +11288,7 @@
         <v>1072</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="R14" s="32" t="s">
         <v>1081</v>
@@ -11242,25 +11360,25 @@
         <v>1400</v>
       </c>
       <c r="AO14" s="32" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="AP14" s="32" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="AQ14" s="32" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="AR14" s="32" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="AS14" s="32" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="AT14" s="32" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="AU14" s="32" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11268,49 +11386,49 @@
         <v>973</v>
       </c>
       <c r="B15" s="174" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="2" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>1063</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="S15" s="32" t="s">
         <v>1095</v>
@@ -11319,7 +11437,7 @@
         <v>1111</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="V15" s="32" t="s">
         <v>1135</v>
@@ -11343,7 +11461,7 @@
         <v>1218</v>
       </c>
       <c r="AC15" s="32" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="AD15" s="32" t="s">
         <v>1239</v>
@@ -11355,7 +11473,7 @@
         <v>1281</v>
       </c>
       <c r="AG15" s="32" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="AH15" s="32" t="s">
         <v>1305</v>
@@ -11379,25 +11497,25 @@
         <v>1401</v>
       </c>
       <c r="AO15" s="32" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="AP15" s="32" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="AQ15" s="32" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="AR15" s="32" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="AS15" s="32" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="AT15" s="32" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="AU15" s="32" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.35">
@@ -11409,10 +11527,10 @@
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="2" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="32"/>
@@ -11429,10 +11547,10 @@
         <v>1042</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="N16" s="32" t="s">
         <v>1050</v>
@@ -11444,7 +11562,7 @@
         <v>1073</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="R16" s="32" t="s">
         <v>1082</v>
@@ -11516,25 +11634,25 @@
         <v>1402</v>
       </c>
       <c r="AO16" s="32" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="AP16" s="32" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="AQ16" s="32" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="AR16" s="32" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="AS16" s="32" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="AT16" s="32" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="AU16" s="32" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11546,45 +11664,45 @@
       </c>
       <c r="C17" s="109"/>
       <c r="D17" s="2" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>1065</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="S17" s="32" t="s">
         <v>1097</v>
@@ -11593,7 +11711,7 @@
         <v>1113</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="V17" s="32" t="s">
         <v>1137</v>
@@ -11617,7 +11735,7 @@
         <v>1220</v>
       </c>
       <c r="AC17" s="32" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="AD17" s="32" t="s">
         <v>1241</v>
@@ -11629,7 +11747,7 @@
         <v>1283</v>
       </c>
       <c r="AG17" s="32" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="AH17" s="32" t="s">
         <v>1307</v>
@@ -11653,25 +11771,25 @@
         <v>1403</v>
       </c>
       <c r="AO17" s="32" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="AP17" s="32" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="AQ17" s="32" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="AR17" s="32" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="AS17" s="32" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="AT17" s="32" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="AU17" s="32" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11679,14 +11797,14 @@
         <v>976</v>
       </c>
       <c r="B18" s="176" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="2" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="32"/>
@@ -11703,10 +11821,10 @@
         <v>1043</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="N18" s="32" t="s">
         <v>1051</v>
@@ -11718,7 +11836,7 @@
         <v>1074</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="R18" s="32" t="s">
         <v>1083</v>
@@ -11790,25 +11908,25 @@
         <v>1404</v>
       </c>
       <c r="AO18" s="32" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="AP18" s="32" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="AQ18" s="32" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="AR18" s="32" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="AS18" s="32" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="AT18" s="32" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="AU18" s="32" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11820,45 +11938,45 @@
       </c>
       <c r="C19" s="109"/>
       <c r="D19" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>1067</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="S19" s="32" t="s">
         <v>1099</v>
@@ -11867,7 +11985,7 @@
         <v>1115</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="V19" s="32" t="s">
         <v>1139</v>
@@ -11891,7 +12009,7 @@
         <v>1206</v>
       </c>
       <c r="AC19" s="32" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="AD19" s="32" t="s">
         <v>1243</v>
@@ -11903,7 +12021,7 @@
         <v>1285</v>
       </c>
       <c r="AG19" s="32" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="AH19" s="32" t="s">
         <v>1309</v>
@@ -11927,25 +12045,25 @@
         <v>1405</v>
       </c>
       <c r="AO19" s="32" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="AP19" s="32" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="AQ19" s="32" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="AR19" s="32" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="AS19" s="32" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="AT19" s="32" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="AU19" s="32" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11953,14 +12071,14 @@
         <v>978</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C20" s="109"/>
       <c r="D20" s="2" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="32"/>
@@ -11977,10 +12095,10 @@
         <v>1044</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="N20" s="32" t="s">
         <v>1052</v>
@@ -11992,7 +12110,7 @@
         <v>1075</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="R20" s="32" t="s">
         <v>1084</v>
@@ -12064,25 +12182,25 @@
         <v>1406</v>
       </c>
       <c r="AO20" s="32" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="AP20" s="32" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="AQ20" s="32" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="AR20" s="32" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="AS20" s="32" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="AT20" s="32" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="AU20" s="32" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.35">
@@ -12188,7 +12306,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="73" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -12510,10 +12628,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642A96AF-BBE4-463F-94FC-F5367845CBF1}">
-  <dimension ref="A1:AS563"/>
+  <dimension ref="A1:AT563"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2:AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12532,7 +12650,7 @@
     <col min="43" max="43" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>596</v>
       </c>
@@ -12630,46 +12748,49 @@
         <v>1270</v>
       </c>
       <c r="AG1" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="AH1" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="AI1" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="AK1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="AL1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AN1" t="s">
         <v>1609</v>
       </c>
-      <c r="AM1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>1613</v>
-      </c>
       <c r="AO1" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="AP1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AR1" t="s">
         <v>1787</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>1788</v>
       </c>
-      <c r="AR1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT1" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -12788,7 +12909,7 @@
         <v>709</v>
       </c>
       <c r="AN2" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -12805,8 +12926,11 @@
       <c r="AS2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT2" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -12942,8 +13066,11 @@
       <c r="AS3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT3" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -13077,8 +13204,11 @@
       <c r="AS4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT4" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>37</v>
       </c>
@@ -13177,7 +13307,7 @@
         <v>3</v>
       </c>
       <c r="AK5" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="AL5" t="s">
         <v>728</v>
@@ -13203,8 +13333,11 @@
       <c r="AS5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT5" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>38</v>
       </c>
@@ -13288,7 +13421,7 @@
         <v>4</v>
       </c>
       <c r="AK6" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="AL6" t="s">
         <v>32</v>
@@ -13297,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="AN6" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="AO6">
         <v>4</v>
@@ -13311,8 +13444,11 @@
       <c r="AR6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT6" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>39</v>
       </c>
@@ -13375,7 +13511,7 @@
         <v>716</v>
       </c>
       <c r="AK7" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="AL7" t="s">
         <v>840</v>
@@ -13392,8 +13528,11 @@
       <c r="AQ7" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT7" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>40</v>
       </c>
@@ -13464,8 +13603,11 @@
       <c r="AQ8" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT8" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>41</v>
       </c>
@@ -13510,7 +13652,7 @@
         <v>649</v>
       </c>
       <c r="AK9" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="AL9" t="s">
         <v>703</v>
@@ -13524,8 +13666,11 @@
       <c r="AQ9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT9" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>42</v>
       </c>
@@ -13564,13 +13709,13 @@
         <v>715</v>
       </c>
       <c r="AK10" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="AL10" t="s">
         <v>841</v>
       </c>
       <c r="AN10" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="AP10">
         <v>8</v>
@@ -13578,8 +13723,11 @@
       <c r="AQ10" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT10" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>43</v>
       </c>
@@ -13615,13 +13763,16 @@
         <v>1266</v>
       </c>
       <c r="AN11" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="AQ11" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT11" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>44</v>
       </c>
@@ -13648,19 +13799,22 @@
         <v>704</v>
       </c>
       <c r="AK12" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AL12" t="s">
         <v>1606</v>
       </c>
-      <c r="AL12" t="s">
-        <v>1610</v>
-      </c>
       <c r="AN12" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="AQ12" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT12" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>45</v>
       </c>
@@ -13698,8 +13852,11 @@
       <c r="AQ13" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT13" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
@@ -13723,7 +13880,7 @@
         <v>849</v>
       </c>
       <c r="AK14" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="AL14" t="s">
         <v>649</v>
@@ -13734,8 +13891,11 @@
       <c r="AQ14" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT14" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>47</v>
       </c>
@@ -13759,7 +13919,7 @@
         <v>716</v>
       </c>
       <c r="AK15" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="AL15" t="s">
         <v>715</v>
@@ -13770,8 +13930,11 @@
       <c r="AQ15" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT15" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>48</v>
       </c>
@@ -13795,10 +13958,13 @@
         <v>843</v>
       </c>
       <c r="AN16" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1615</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
@@ -13821,8 +13987,11 @@
       <c r="AN17" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AT17" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>50</v>
       </c>
@@ -13843,10 +14012,13 @@
         <v>33</v>
       </c>
       <c r="AN18" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1616</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>51</v>
       </c>
@@ -13864,13 +14036,16 @@
         <v>941</v>
       </c>
       <c r="AL19" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="AN19" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AT19" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>52</v>
       </c>
@@ -13893,8 +14068,11 @@
       <c r="AN20" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AT20" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>53</v>
       </c>
@@ -13917,8 +14095,11 @@
       <c r="AN21" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AT21" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>54</v>
       </c>
@@ -13939,10 +14120,13 @@
         <v>849</v>
       </c>
       <c r="AN22" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1617</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>55</v>
       </c>
@@ -13963,10 +14147,13 @@
         <v>737</v>
       </c>
       <c r="AN23" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1618</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>56</v>
       </c>
@@ -13987,10 +14174,13 @@
         <v>716</v>
       </c>
       <c r="AN24" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1619</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>57</v>
       </c>
@@ -14011,10 +14201,13 @@
         <v>717</v>
       </c>
       <c r="AN25" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1620</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>58</v>
       </c>
@@ -14035,10 +14228,13 @@
         <v>850</v>
       </c>
       <c r="AN26" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1621</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>59</v>
       </c>
@@ -14059,10 +14255,13 @@
         <v>706</v>
       </c>
       <c r="AN27" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1622</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>60</v>
       </c>
@@ -14082,8 +14281,11 @@
       <c r="AN28" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AT28" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>61</v>
       </c>
@@ -14103,8 +14305,11 @@
       <c r="AN29" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AT29" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>62</v>
       </c>
@@ -14122,10 +14327,13 @@
         <v>898</v>
       </c>
       <c r="AN30" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1623</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>63</v>
       </c>
@@ -14143,10 +14351,10 @@
         <v>950</v>
       </c>
       <c r="AN31" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>64</v>
       </c>
@@ -14164,7 +14372,7 @@
         <v>899</v>
       </c>
       <c r="AN32" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
@@ -14185,7 +14393,7 @@
         <v>951</v>
       </c>
       <c r="AN33" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
@@ -14206,7 +14414,7 @@
         <v>952</v>
       </c>
       <c r="AN34" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
@@ -14227,7 +14435,7 @@
         <v>953</v>
       </c>
       <c r="AN35" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
@@ -14248,7 +14456,7 @@
         <v>954</v>
       </c>
       <c r="AN36" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.35">
@@ -14269,7 +14477,7 @@
         <v>955</v>
       </c>
       <c r="AN37" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
@@ -14290,7 +14498,7 @@
         <v>956</v>
       </c>
       <c r="AN38" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
@@ -14311,7 +14519,7 @@
         <v>957</v>
       </c>
       <c r="AN39" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
@@ -14332,7 +14540,7 @@
         <v>958</v>
       </c>
       <c r="AN40" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
@@ -14353,7 +14561,7 @@
         <v>959</v>
       </c>
       <c r="AN41" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
@@ -14371,7 +14579,7 @@
         <v>893</v>
       </c>
       <c r="AN42" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
@@ -14389,7 +14597,7 @@
         <v>894</v>
       </c>
       <c r="AN43" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
@@ -14407,7 +14615,7 @@
         <v>895</v>
       </c>
       <c r="AN44" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
@@ -14461,7 +14669,7 @@
         <v>898</v>
       </c>
       <c r="AN47" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
@@ -14479,7 +14687,7 @@
         <v>899</v>
       </c>
       <c r="AN48" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
@@ -14497,7 +14705,7 @@
         <v>900</v>
       </c>
       <c r="AN49" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
@@ -14515,7 +14723,7 @@
         <v>901</v>
       </c>
       <c r="AN50" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
@@ -14533,7 +14741,7 @@
         <v>902</v>
       </c>
       <c r="AN51" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
@@ -14551,7 +14759,7 @@
         <v>903</v>
       </c>
       <c r="AN52" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
@@ -14569,7 +14777,7 @@
         <v>904</v>
       </c>
       <c r="AN53" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
@@ -14587,7 +14795,7 @@
         <v>905</v>
       </c>
       <c r="AN54" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
@@ -14641,7 +14849,7 @@
         <v>908</v>
       </c>
       <c r="AN57" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
@@ -14659,7 +14867,7 @@
         <v>909</v>
       </c>
       <c r="AN58" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
@@ -14713,7 +14921,7 @@
         <v>912</v>
       </c>
       <c r="AN61" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
@@ -14731,7 +14939,7 @@
         <v>913</v>
       </c>
       <c r="AN62" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
@@ -14749,7 +14957,7 @@
         <v>914</v>
       </c>
       <c r="AN63" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
@@ -14785,7 +14993,7 @@
         <v>916</v>
       </c>
       <c r="AN65" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
@@ -14857,7 +15065,7 @@
         <v>920</v>
       </c>
       <c r="AN69" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
@@ -14926,7 +15134,7 @@
         <v>803</v>
       </c>
       <c r="AN73" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
@@ -14941,7 +15149,7 @@
         <v>804</v>
       </c>
       <c r="AN74" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.35">
@@ -14956,7 +15164,7 @@
         <v>723</v>
       </c>
       <c r="AN75" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
@@ -14971,7 +15179,7 @@
         <v>724</v>
       </c>
       <c r="AN76" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
@@ -14986,7 +15194,7 @@
         <v>805</v>
       </c>
       <c r="AN77" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
@@ -15001,7 +15209,7 @@
         <v>806</v>
       </c>
       <c r="AN78" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
@@ -15016,7 +15224,7 @@
         <v>807</v>
       </c>
       <c r="AN79" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
@@ -15031,7 +15239,7 @@
         <v>808</v>
       </c>
       <c r="AN80" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
@@ -15046,7 +15254,7 @@
         <v>809</v>
       </c>
       <c r="AN81" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
@@ -15061,7 +15269,7 @@
         <v>810</v>
       </c>
       <c r="AN82" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.35">
@@ -15076,7 +15284,7 @@
         <v>811</v>
       </c>
       <c r="AN83" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
@@ -15091,7 +15299,7 @@
         <v>812</v>
       </c>
       <c r="AN84" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
@@ -15121,7 +15329,7 @@
         <v>813</v>
       </c>
       <c r="AN86" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
@@ -15134,7 +15342,7 @@
         <v>814</v>
       </c>
       <c r="AN87" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
@@ -15147,7 +15355,7 @@
         <v>815</v>
       </c>
       <c r="AN88" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
@@ -15173,7 +15381,7 @@
         <v>816</v>
       </c>
       <c r="AN90" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
@@ -15186,7 +15394,7 @@
         <v>817</v>
       </c>
       <c r="AN91" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
@@ -15199,7 +15407,7 @@
         <v>818</v>
       </c>
       <c r="AN92" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
@@ -15212,7 +15420,7 @@
         <v>819</v>
       </c>
       <c r="AN93" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
@@ -15238,7 +15446,7 @@
         <v>821</v>
       </c>
       <c r="AN95" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.35">
@@ -15251,7 +15459,7 @@
         <v>673</v>
       </c>
       <c r="AN96" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
@@ -15264,7 +15472,7 @@
         <v>822</v>
       </c>
       <c r="AN97" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
@@ -15277,7 +15485,7 @@
         <v>823</v>
       </c>
       <c r="AN98" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.35">
@@ -15290,7 +15498,7 @@
         <v>679</v>
       </c>
       <c r="AN99" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.35">
@@ -15303,7 +15511,7 @@
         <v>680</v>
       </c>
       <c r="AN100" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
@@ -15316,7 +15524,7 @@
         <v>824</v>
       </c>
       <c r="AN101" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
@@ -15329,7 +15537,7 @@
         <v>825</v>
       </c>
       <c r="AN102" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
@@ -15342,7 +15550,7 @@
         <v>826</v>
       </c>
       <c r="AN103" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
@@ -15355,7 +15563,7 @@
         <v>827</v>
       </c>
       <c r="AN104" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
@@ -15381,7 +15589,7 @@
         <v>829</v>
       </c>
       <c r="AN106" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.35">
@@ -15394,7 +15602,7 @@
         <v>830</v>
       </c>
       <c r="AN107" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.35">
@@ -15407,7 +15615,7 @@
         <v>831</v>
       </c>
       <c r="AN108" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.35">
@@ -15420,7 +15628,7 @@
         <v>832</v>
       </c>
       <c r="AN109" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
@@ -15433,7 +15641,7 @@
         <v>833</v>
       </c>
       <c r="AN110" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
@@ -15443,7 +15651,7 @@
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
       <c r="AN111" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
@@ -15453,7 +15661,7 @@
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
       <c r="AN112" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.35">
@@ -15463,7 +15671,7 @@
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
       <c r="AN113" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.35">
@@ -15473,7 +15681,7 @@
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
       <c r="AN114" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.35">
@@ -15483,7 +15691,7 @@
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
       <c r="AN115" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.35">
@@ -15493,7 +15701,7 @@
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
       <c r="AN116" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="117" spans="1:40" x14ac:dyDescent="0.35">
@@ -15503,7 +15711,7 @@
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
       <c r="AN117" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.35">
@@ -15513,7 +15721,7 @@
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
       <c r="AN118" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="119" spans="1:40" x14ac:dyDescent="0.35">
@@ -15523,7 +15731,7 @@
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
       <c r="AN119" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="120" spans="1:40" x14ac:dyDescent="0.35">
@@ -15533,7 +15741,7 @@
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
       <c r="AN120" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="121" spans="1:40" x14ac:dyDescent="0.35">
@@ -15553,7 +15761,7 @@
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
       <c r="AN122" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.35">
@@ -15563,7 +15771,7 @@
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
       <c r="AN123" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.35">
@@ -15573,7 +15781,7 @@
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
       <c r="AN124" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.35">
@@ -15583,7 +15791,7 @@
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
       <c r="AN125" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.35">
@@ -15593,7 +15801,7 @@
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
       <c r="AN126" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.35">
@@ -15603,7 +15811,7 @@
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
       <c r="AN127" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.35">
@@ -15613,7 +15821,7 @@
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
       <c r="AN128" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.35">
@@ -15623,7 +15831,7 @@
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
       <c r="AN129" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="130" spans="1:40" x14ac:dyDescent="0.35">
@@ -15633,7 +15841,7 @@
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
       <c r="AN130" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.35">
@@ -15653,7 +15861,7 @@
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
       <c r="AN132" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.35">
@@ -15663,7 +15871,7 @@
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
       <c r="AN133" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.35">
@@ -15673,7 +15881,7 @@
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
       <c r="AN134" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.35">
@@ -15683,7 +15891,7 @@
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
       <c r="AN135" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.35">
@@ -15693,7 +15901,7 @@
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
       <c r="AN136" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.35">
@@ -15703,7 +15911,7 @@
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
       <c r="AN137" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.35">
@@ -15713,7 +15921,7 @@
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
       <c r="AN138" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="139" spans="1:40" x14ac:dyDescent="0.35">
@@ -15723,7 +15931,7 @@
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
       <c r="AN139" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.35">
@@ -15733,7 +15941,7 @@
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
       <c r="AN140" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="141" spans="1:40" x14ac:dyDescent="0.35">
@@ -15743,7 +15951,7 @@
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="AN141" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="142" spans="1:40" x14ac:dyDescent="0.35">
@@ -15753,7 +15961,7 @@
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
       <c r="AN142" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="143" spans="1:40" x14ac:dyDescent="0.35">
@@ -15763,7 +15971,7 @@
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
       <c r="AN143" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="144" spans="1:40" x14ac:dyDescent="0.35">
@@ -15773,7 +15981,7 @@
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
       <c r="AN144" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="145" spans="1:40" x14ac:dyDescent="0.35">
@@ -15783,7 +15991,7 @@
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
       <c r="AN145" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.35">
@@ -15803,7 +16011,7 @@
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="AN147" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.35">
@@ -15813,7 +16021,7 @@
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
       <c r="AN148" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.35">
@@ -15823,7 +16031,7 @@
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
       <c r="AN149" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="150" spans="1:40" x14ac:dyDescent="0.35">
@@ -15833,7 +16041,7 @@
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
       <c r="AN150" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.35">
@@ -15843,7 +16051,7 @@
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
       <c r="AN151" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
@@ -15853,7 +16061,7 @@
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
       <c r="AN152" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.35">
@@ -15863,7 +16071,7 @@
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
       <c r="AN153" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.35">
@@ -15883,7 +16091,7 @@
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
       <c r="AN155" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="156" spans="1:40" x14ac:dyDescent="0.35">
@@ -15893,7 +16101,7 @@
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
       <c r="AN156" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="157" spans="1:40" x14ac:dyDescent="0.35">
@@ -15923,7 +16131,7 @@
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
       <c r="AN159" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.35">
@@ -15933,7 +16141,7 @@
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
       <c r="AN160" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.35">
@@ -15943,7 +16151,7 @@
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
       <c r="AN161" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.35">
@@ -15953,7 +16161,7 @@
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
       <c r="AN162" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.35">
@@ -15963,7 +16171,7 @@
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
       <c r="AN163" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.35">
@@ -15973,7 +16181,7 @@
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
       <c r="AN164" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.35">
@@ -15983,7 +16191,7 @@
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
       <c r="AN165" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="166" spans="1:40" x14ac:dyDescent="0.35">
@@ -15993,7 +16201,7 @@
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
       <c r="AN166" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="167" spans="1:40" x14ac:dyDescent="0.35">
@@ -16013,7 +16221,7 @@
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
       <c r="AN168" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="169" spans="1:40" x14ac:dyDescent="0.35">
@@ -16033,7 +16241,7 @@
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
       <c r="AN170" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.35">
@@ -16063,7 +16271,7 @@
       <c r="B173" s="22"/>
       <c r="C173" s="22"/>
       <c r="AN173" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.35">
@@ -16073,7 +16281,7 @@
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
       <c r="AN174" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.35">
@@ -16103,7 +16311,7 @@
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
       <c r="AN177" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.35">
@@ -16123,7 +16331,7 @@
       <c r="B179" s="22"/>
       <c r="C179" s="22"/>
       <c r="AN179" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.35">
@@ -16143,7 +16351,7 @@
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
       <c r="AN181" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.35">
@@ -16163,7 +16371,7 @@
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
       <c r="AN183" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.35">
@@ -16173,7 +16381,7 @@
       <c r="B184" s="22"/>
       <c r="C184" s="22"/>
       <c r="AN184" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.35">
@@ -16183,7 +16391,7 @@
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
       <c r="AN185" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.35">
@@ -16193,7 +16401,7 @@
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
       <c r="AN186" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.35">
@@ -16203,7 +16411,7 @@
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
       <c r="AN187" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.35">
@@ -16213,7 +16421,7 @@
       <c r="B188" s="22"/>
       <c r="C188" s="22"/>
       <c r="AN188" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.35">
@@ -16223,7 +16431,7 @@
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
       <c r="AN189" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.35">
@@ -16233,7 +16441,7 @@
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
       <c r="AN190" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.35">
@@ -16243,7 +16451,7 @@
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
       <c r="AN191" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.35">
@@ -16253,7 +16461,7 @@
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
       <c r="AN192" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="193" spans="1:40" x14ac:dyDescent="0.35">
@@ -16263,7 +16471,7 @@
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
       <c r="AN193" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="194" spans="1:40" x14ac:dyDescent="0.35">
@@ -16293,7 +16501,7 @@
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
       <c r="AN196" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="197" spans="1:40" x14ac:dyDescent="0.35">
@@ -16303,7 +16511,7 @@
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
       <c r="AN197" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="198" spans="1:40" x14ac:dyDescent="0.35">
@@ -16313,7 +16521,7 @@
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
       <c r="AN198" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="199" spans="1:40" x14ac:dyDescent="0.35">
@@ -16323,7 +16531,7 @@
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
       <c r="AN199" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="200" spans="1:40" x14ac:dyDescent="0.35">
@@ -16333,7 +16541,7 @@
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
       <c r="AN200" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="201" spans="1:40" x14ac:dyDescent="0.35">
@@ -16343,7 +16551,7 @@
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
       <c r="AN201" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="202" spans="1:40" x14ac:dyDescent="0.35">
@@ -16353,7 +16561,7 @@
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
       <c r="AN202" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="203" spans="1:40" x14ac:dyDescent="0.35">
@@ -16363,7 +16571,7 @@
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
       <c r="AN203" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="204" spans="1:40" x14ac:dyDescent="0.35">
@@ -16373,7 +16581,7 @@
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
       <c r="AN204" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="205" spans="1:40" x14ac:dyDescent="0.35">
@@ -16383,7 +16591,7 @@
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
       <c r="AN205" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="206" spans="1:40" x14ac:dyDescent="0.35">
@@ -16393,7 +16601,7 @@
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
       <c r="AN206" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="207" spans="1:40" x14ac:dyDescent="0.35">
@@ -16403,7 +16611,7 @@
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
       <c r="AN207" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="208" spans="1:40" x14ac:dyDescent="0.35">
@@ -16413,7 +16621,7 @@
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
       <c r="AN208" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="209" spans="1:40" x14ac:dyDescent="0.35">
@@ -16423,7 +16631,7 @@
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
       <c r="AN209" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="210" spans="1:40" x14ac:dyDescent="0.35">
@@ -16433,7 +16641,7 @@
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
       <c r="AN210" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="211" spans="1:40" x14ac:dyDescent="0.35">
@@ -16453,7 +16661,7 @@
       <c r="B212" s="22"/>
       <c r="C212" s="22"/>
       <c r="AN212" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="213" spans="1:40" x14ac:dyDescent="0.35">
@@ -16463,7 +16671,7 @@
       <c r="B213" s="22"/>
       <c r="C213" s="22"/>
       <c r="AN213" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="214" spans="1:40" x14ac:dyDescent="0.35">
@@ -16473,7 +16681,7 @@
       <c r="B214" s="22"/>
       <c r="C214" s="22"/>
       <c r="AN214" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="215" spans="1:40" x14ac:dyDescent="0.35">
@@ -16483,7 +16691,7 @@
       <c r="B215" s="22"/>
       <c r="C215" s="22"/>
       <c r="AN215" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="216" spans="1:40" x14ac:dyDescent="0.35">
@@ -16493,7 +16701,7 @@
       <c r="B216" s="22"/>
       <c r="C216" s="22"/>
       <c r="AN216" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="217" spans="1:40" x14ac:dyDescent="0.35">
@@ -16503,7 +16711,7 @@
       <c r="B217" s="22"/>
       <c r="C217" s="22"/>
       <c r="AN217" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="218" spans="1:40" x14ac:dyDescent="0.35">
@@ -16513,7 +16721,7 @@
       <c r="B218" s="22"/>
       <c r="C218" s="22"/>
       <c r="AN218" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="219" spans="1:40" x14ac:dyDescent="0.35">
@@ -16533,7 +16741,7 @@
       <c r="B220" s="22"/>
       <c r="C220" s="22"/>
       <c r="AN220" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="221" spans="1:40" x14ac:dyDescent="0.35">
@@ -16543,7 +16751,7 @@
       <c r="B221" s="22"/>
       <c r="C221" s="22"/>
       <c r="AN221" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="222" spans="1:40" x14ac:dyDescent="0.35">
@@ -16563,7 +16771,7 @@
       <c r="B223" s="22"/>
       <c r="C223" s="22"/>
       <c r="AN223" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="224" spans="1:40" x14ac:dyDescent="0.35">
@@ -16573,7 +16781,7 @@
       <c r="B224" s="22"/>
       <c r="C224" s="22"/>
       <c r="AN224" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="225" spans="1:40" x14ac:dyDescent="0.35">
@@ -16583,7 +16791,7 @@
       <c r="B225" s="22"/>
       <c r="C225" s="22"/>
       <c r="AN225" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="226" spans="1:40" x14ac:dyDescent="0.35">
@@ -18953,16 +19161,17 @@
       <c r="C563" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="bd9mXDtRM+KeK4HTnORdP04v0JWHLaeMS9rgXE1GB6ouLH2N77Wqqn1wuh52JrPZeXNCBMsXj9GslOOa1vm5Zg==" saltValue="YwCytF2vE8dJY7lDyNnlwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B206F-F17C-4025-942F-53FBF697F5D0}">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19048,7 +19257,7 @@
       <c r="B3" s="278"/>
       <c r="C3" s="278"/>
       <c r="D3" s="279" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E3" s="278"/>
       <c r="F3" s="278"/>
@@ -19240,7 +19449,7 @@
       <c r="B8" s="278"/>
       <c r="C8" s="278"/>
       <c r="D8" s="280" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="E8" s="278"/>
       <c r="F8" s="278"/>
@@ -19318,7 +19527,7 @@
       <c r="B10" s="278"/>
       <c r="C10" s="278"/>
       <c r="D10" s="280" t="s">
-        <v>1423</v>
+        <v>1980</v>
       </c>
       <c r="E10" s="278"/>
       <c r="F10" s="278"/>
@@ -19396,7 +19605,7 @@
       <c r="B12" s="278"/>
       <c r="C12" s="278"/>
       <c r="D12" s="282" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E12" s="280"/>
       <c r="F12" s="280"/>
@@ -19437,7 +19646,7 @@
       <c r="C13" s="278"/>
       <c r="D13" s="280"/>
       <c r="E13" s="280" t="s">
-        <v>1426</v>
+        <v>1984</v>
       </c>
       <c r="F13" s="280"/>
       <c r="G13" s="280"/>
@@ -19477,7 +19686,7 @@
       <c r="C14" s="278"/>
       <c r="D14" s="280"/>
       <c r="E14" s="280" t="s">
-        <v>1425</v>
+        <v>1985</v>
       </c>
       <c r="F14" s="280"/>
       <c r="G14" s="280"/>
@@ -19517,7 +19726,7 @@
       <c r="C15" s="278"/>
       <c r="D15" s="280"/>
       <c r="E15" s="280" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="F15" s="280"/>
       <c r="G15" s="280"/>
@@ -19557,7 +19766,7 @@
       <c r="C16" s="278"/>
       <c r="D16" s="280"/>
       <c r="E16" s="280" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="F16" s="280"/>
       <c r="G16" s="280"/>
@@ -19597,7 +19806,7 @@
       <c r="C17" s="278"/>
       <c r="D17" s="280"/>
       <c r="E17" s="280" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="F17" s="280"/>
       <c r="G17" s="280"/>
@@ -19637,7 +19846,7 @@
       <c r="C18" s="278"/>
       <c r="D18" s="280"/>
       <c r="E18" s="280" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="F18" s="280"/>
       <c r="G18" s="280"/>
@@ -19677,7 +19886,7 @@
       <c r="C19" s="278"/>
       <c r="D19" s="280"/>
       <c r="E19" s="280" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="F19" s="280"/>
       <c r="G19" s="280"/>
@@ -19716,7 +19925,9 @@
       <c r="B20" s="278"/>
       <c r="C20" s="278"/>
       <c r="D20" s="280"/>
-      <c r="E20" s="280"/>
+      <c r="E20" s="280" t="s">
+        <v>1981</v>
+      </c>
       <c r="F20" s="280"/>
       <c r="G20" s="280"/>
       <c r="H20" s="280"/>
@@ -19755,7 +19966,7 @@
       <c r="C21" s="278"/>
       <c r="D21" s="280"/>
       <c r="E21" s="280" t="s">
-        <v>1430</v>
+        <v>1982</v>
       </c>
       <c r="F21" s="280"/>
       <c r="G21" s="280"/>
@@ -19789,12 +20000,14 @@
       <c r="AI21" s="278"/>
       <c r="AJ21" s="278"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="278"/>
       <c r="B22" s="278"/>
       <c r="C22" s="278"/>
       <c r="D22" s="278"/>
-      <c r="E22" s="278"/>
+      <c r="E22" s="280" t="s">
+        <v>1983</v>
+      </c>
       <c r="F22" s="278"/>
       <c r="G22" s="278"/>
       <c r="H22" s="278"/>
@@ -19827,12 +20040,12 @@
       <c r="AI22" s="278"/>
       <c r="AJ22" s="278"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="278"/>
       <c r="B23" s="278"/>
       <c r="C23" s="278"/>
       <c r="D23" s="278"/>
-      <c r="E23" s="278"/>
+      <c r="E23" s="280"/>
       <c r="F23" s="278"/>
       <c r="G23" s="278"/>
       <c r="H23" s="278"/>
@@ -21119,8 +21332,14 @@
       <c r="AI56" s="278"/>
       <c r="AJ56" s="278"/>
     </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="E57" s="278"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="E58" s="278"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fgM8ArAI4LCessrPf6/yDy56Jt8yGktSCb7Jw9g/ZXy22uPLDjvkYDfZoG+0rD7YMPCSaunOm3MsJLh+bm/4KA==" saltValue="fFcFeTLqS4YBrxCetCGCdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0rz7CEFAIZRhBNEXKBIATmHp722ayOJVWXiQWofPuSEOImdQ6xmHNPQj8Vou6S+t0uuqbx4ISjPSs0BmQiEM7g==" saltValue="pyKywYgoFr8XEcbAvUabNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21131,7 +21350,7 @@
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21139,7 +21358,7 @@
     <col min="1" max="1" width="17.6328125" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="3.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
     <col min="6" max="6" width="4.453125" customWidth="1"/>
     <col min="7" max="7" width="3.7265625" customWidth="1"/>
@@ -21173,9 +21392,10 @@
     <col min="37" max="37" width="3.453125" customWidth="1"/>
     <col min="38" max="39" width="3.36328125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="3.36328125" style="86" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="3.36328125" style="86" customWidth="1"/>
-    <col min="43" max="43" width="4.08984375" customWidth="1"/>
-    <col min="44" max="45" width="3.81640625" customWidth="1"/>
+    <col min="41" max="41" width="3.36328125" style="86" customWidth="1"/>
+    <col min="42" max="42" width="4.7265625" style="86" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="44" max="45" width="4.7265625" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="4.54296875" customWidth="1"/>
     <col min="47" max="47" width="5.26953125" customWidth="1"/>
     <col min="48" max="48" width="4.26953125" customWidth="1"/>
@@ -21187,7 +21407,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="34" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="285" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B1" s="286"/>
       <c r="C1" s="286"/>
@@ -21306,7 +21526,7 @@
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="283" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="M3" s="284"/>
       <c r="N3" s="142" t="s">
@@ -21355,7 +21575,7 @@
       <c r="AM3" s="76"/>
       <c r="AN3" s="194"/>
       <c r="AO3" s="95" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="AP3" s="96"/>
       <c r="AQ3" s="94" t="s">
@@ -21363,8 +21583,8 @@
       </c>
       <c r="AR3" s="64"/>
       <c r="AS3" s="189"/>
-      <c r="AT3" s="190"/>
-      <c r="AU3" s="191"/>
+      <c r="AT3" s="287"/>
+      <c r="AU3" s="288"/>
     </row>
     <row r="4" spans="1:47" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -21374,7 +21594,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="198" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="H4" s="143" t="s">
         <v>962</v>
@@ -21482,19 +21702,19 @@
         <v>26</v>
       </c>
       <c r="AQ4" s="184" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="AR4" s="184" t="s">
         <v>19</v>
       </c>
       <c r="AS4" s="184" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="AT4" s="185" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="AU4" s="186" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -21506,7 +21726,7 @@
       </c>
       <c r="C5" s="126"/>
       <c r="D5" s="2" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E5" s="271"/>
       <c r="F5" s="109"/>
@@ -21516,7 +21736,7 @@
       <c r="H5" s="199"/>
       <c r="I5" s="200"/>
       <c r="J5" s="201"/>
-      <c r="K5" s="202"/>
+      <c r="K5" s="204"/>
       <c r="L5" s="203"/>
       <c r="M5" s="204"/>
       <c r="N5" s="205"/>
@@ -21559,11 +21779,11 @@
         <v>966</v>
       </c>
       <c r="B6" s="264" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="2" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E6" s="271"/>
       <c r="F6" s="109"/>
@@ -21616,7 +21836,7 @@
       <c r="B7" s="263"/>
       <c r="C7" s="109"/>
       <c r="D7" s="2" t="s">
-        <v>1581</v>
+        <v>1950</v>
       </c>
       <c r="E7" s="271"/>
       <c r="F7" s="109"/>
@@ -21626,7 +21846,7 @@
       <c r="H7" s="208"/>
       <c r="I7" s="225"/>
       <c r="J7" s="226"/>
-      <c r="K7" s="212"/>
+      <c r="K7" s="289"/>
       <c r="L7" s="227"/>
       <c r="M7" s="228"/>
       <c r="N7" s="205"/>
@@ -21673,7 +21893,7 @@
       </c>
       <c r="C8" s="109"/>
       <c r="D8" s="2" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E8" s="271"/>
       <c r="F8" s="109"/>
@@ -21734,7 +21954,7 @@
       <c r="H9" s="208"/>
       <c r="I9" s="225"/>
       <c r="J9" s="226"/>
-      <c r="K9" s="212"/>
+      <c r="K9" s="289"/>
       <c r="L9" s="227"/>
       <c r="M9" s="228"/>
       <c r="N9" s="205"/>
@@ -21779,7 +21999,7 @@
       <c r="B10" s="265"/>
       <c r="C10" s="109"/>
       <c r="D10" s="2" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E10" s="264"/>
       <c r="F10" s="109"/>
@@ -21832,7 +22052,7 @@
       <c r="B11" s="263"/>
       <c r="C11" s="109"/>
       <c r="D11" s="2" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E11" s="270"/>
       <c r="F11" s="109"/>
@@ -21842,7 +22062,7 @@
       <c r="H11" s="208"/>
       <c r="I11" s="225"/>
       <c r="J11" s="226"/>
-      <c r="K11" s="212"/>
+      <c r="K11" s="289"/>
       <c r="L11" s="227"/>
       <c r="M11" s="228"/>
       <c r="N11" s="205"/>
@@ -21887,7 +22107,7 @@
       <c r="B12" s="263"/>
       <c r="C12" s="109"/>
       <c r="D12" s="2" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E12" s="271"/>
       <c r="F12" s="196"/>
@@ -21940,7 +22160,7 @@
       <c r="B13" s="263"/>
       <c r="C13" s="109"/>
       <c r="D13" s="2" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E13" s="271"/>
       <c r="F13" s="109"/>
@@ -21950,7 +22170,7 @@
       <c r="H13" s="208"/>
       <c r="I13" s="225"/>
       <c r="J13" s="226"/>
-      <c r="K13" s="212"/>
+      <c r="K13" s="289"/>
       <c r="L13" s="227"/>
       <c r="M13" s="228"/>
       <c r="N13" s="205"/>
@@ -21990,12 +22210,12 @@
     </row>
     <row r="14" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B14" s="263"/>
       <c r="C14" s="109"/>
       <c r="D14" s="2" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E14" s="271"/>
       <c r="F14" s="109"/>
@@ -22048,7 +22268,7 @@
       <c r="B15" s="264"/>
       <c r="C15" s="109"/>
       <c r="D15" s="2" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E15" s="271"/>
       <c r="F15" s="109"/>
@@ -22058,7 +22278,7 @@
       <c r="H15" s="208"/>
       <c r="I15" s="225"/>
       <c r="J15" s="226"/>
-      <c r="K15" s="212"/>
+      <c r="K15" s="289"/>
       <c r="L15" s="227"/>
       <c r="M15" s="228"/>
       <c r="N15" s="205"/>
@@ -22103,7 +22323,7 @@
       <c r="B16" s="266"/>
       <c r="C16" s="109"/>
       <c r="D16" s="2" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E16" s="271"/>
       <c r="F16" s="109"/>
@@ -22156,7 +22376,7 @@
       <c r="B17" s="267"/>
       <c r="C17" s="109"/>
       <c r="D17" s="2" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E17" s="271"/>
       <c r="F17" s="109"/>
@@ -22166,7 +22386,7 @@
       <c r="H17" s="208"/>
       <c r="I17" s="225"/>
       <c r="J17" s="226"/>
-      <c r="K17" s="212"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="227"/>
       <c r="M17" s="228"/>
       <c r="N17" s="205"/>
@@ -22211,7 +22431,7 @@
       <c r="B18" s="264"/>
       <c r="C18" s="109"/>
       <c r="D18" s="2" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="E18" s="271"/>
       <c r="F18" s="109"/>
@@ -22264,7 +22484,7 @@
       <c r="B19" s="268"/>
       <c r="C19" s="109"/>
       <c r="D19" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E19" s="271"/>
       <c r="F19" s="109"/>
@@ -22274,7 +22494,7 @@
       <c r="H19" s="208"/>
       <c r="I19" s="225"/>
       <c r="J19" s="226"/>
-      <c r="K19" s="212"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="227"/>
       <c r="M19" s="228"/>
       <c r="N19" s="205"/>
@@ -22319,7 +22539,7 @@
       <c r="B20" s="269"/>
       <c r="C20" s="126"/>
       <c r="D20" s="2" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E20" s="271"/>
       <c r="F20" s="109"/>
@@ -22643,7 +22863,7 @@
       <c r="R34" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VACrwsAuNk19uTMAryquDKfypC3b0mHt7rGcE0OWNEj4N2MT0d8mNqiNZLsiPnSge35S/UtK3cMYOk453A0KoQ==" saltValue="Tu2tSdCYZ4F8E4doo4mMRA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="A1:AT1"/>
@@ -22651,7 +22871,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1510" yWindow="766" count="45">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1510" yWindow="766" count="46">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Coarse Fragments Lithology" xr:uid="{545CDC47-D8BB-4B28-AAC8-21ACE8F29B70}">
           <x14:formula1>
             <xm:f>Codes!$N$2:$N$110</xm:f>
@@ -22922,6 +23142,12 @@
           </x14:formula1>
           <xm:sqref>AC5:AC20</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Horizon Designation Suffix" xr:uid="{2A479445-B4C6-4868-8E99-18945CE78787}">
+          <x14:formula1>
+            <xm:f>Codes!$AT$2:$AT$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>K5 K7 K9 K11 K13 K15 K17 K19</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -22988,7 +23214,7 @@
   <sheetData>
     <row r="1" spans="1:46" ht="34" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="285" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B1" s="286"/>
       <c r="C1" s="286"/>
@@ -23104,7 +23330,7 @@
       </c>
       <c r="J3" s="44"/>
       <c r="K3" s="283" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="L3" s="284"/>
       <c r="M3" s="142" t="s">
@@ -23153,7 +23379,7 @@
       <c r="AL3" s="76"/>
       <c r="AM3" s="194"/>
       <c r="AN3" s="95" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="AO3" s="96"/>
       <c r="AP3" s="94" t="s">
@@ -23277,19 +23503,19 @@
         <v>26</v>
       </c>
       <c r="AP4" s="184" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="AQ4" s="184" t="s">
         <v>19</v>
       </c>
       <c r="AR4" s="184" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="AS4" s="185" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="AT4" s="186" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -23301,7 +23527,7 @@
       </c>
       <c r="C5" s="126"/>
       <c r="D5" s="2" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E5" s="73">
         <v>0</v>
@@ -23391,11 +23617,11 @@
         <v>966</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="2" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E6" s="73">
         <v>6</v>
@@ -23463,7 +23689,7 @@
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="2" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="1"/>
@@ -23567,7 +23793,7 @@
       </c>
       <c r="C8" s="109"/>
       <c r="D8" s="2" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E8" s="73" t="s">
         <v>668</v>
@@ -23646,7 +23872,7 @@
         <v>78</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="107" t="s">
@@ -23753,10 +23979,10 @@
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="2" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="34"/>
@@ -23821,7 +24047,7 @@
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="2" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E11" s="125" t="s">
         <v>719</v>
@@ -23899,11 +24125,11 @@
         <v>971</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="C12" s="109"/>
       <c r="D12" s="2" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>744</v>
@@ -23959,10 +24185,10 @@
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="2" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="32">
@@ -24042,14 +24268,14 @@
     </row>
     <row r="14" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B14" s="127" t="s">
         <v>733</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="2" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E14" s="73" t="s">
         <v>704</v>
@@ -24117,7 +24343,7 @@
       <c r="B15" s="128"/>
       <c r="C15" s="109"/>
       <c r="D15" s="2" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E15" s="73" t="s">
         <v>840</v>
@@ -24173,7 +24399,7 @@
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="2" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E16" s="73" t="s">
         <v>840</v>
@@ -24229,7 +24455,7 @@
       </c>
       <c r="C17" s="109"/>
       <c r="D17" s="2" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E17" s="73" t="s">
         <v>703</v>
@@ -24285,7 +24511,7 @@
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="2" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="E18" s="73" t="s">
         <v>842</v>
@@ -24341,7 +24567,7 @@
       </c>
       <c r="C19" s="109"/>
       <c r="D19" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E19" s="73">
         <v>1</v>
@@ -24397,10 +24623,10 @@
       </c>
       <c r="C20" s="126"/>
       <c r="D20" s="2" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="36"/>
